--- a/data/raw_data/ManyPrimates Pilot_CapuchinsEdi_Voelter.xlsx
+++ b/data/raw_data/ManyPrimates Pilot_CapuchinsEdi_Voelter.xlsx
@@ -5,23 +5,26 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MBohn/Work/ManyPrimates/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MBohn/Work/ManyPrimates/ManyPrimates_pilot/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60691576-BC0F-5B48-9E73-E8512D65F337}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7F163DF-17BA-994F-9E4E-020CAAB02F96}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28460" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw data" sheetId="4" r:id="rId1"/>
     <sheet name="Coding descriptions" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'raw data'!$A$1:$R$756</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5331" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5328" uniqueCount="101">
   <si>
     <t>date</t>
   </si>
@@ -284,13 +287,7 @@
     <t xml:space="preserve">no response within 1 min, trial twice repeated, no response within 3 min, session stopped. 2nd sessions: did not make a choice within 1 min, then stopped approaching the platform; </t>
   </si>
   <si>
-    <t>1,2,3,</t>
-  </si>
-  <si>
     <t>ambiguous choice, but first response was second cup</t>
-  </si>
-  <si>
-    <t>3,4</t>
   </si>
   <si>
     <t>did not make a response within 1 min, trial repeated, no response, session terminated. Session4 : no response within 1 min</t>
@@ -318,9 +315,6 @@
   </si>
   <si>
     <t>wanted to leave after this trial, excluded from study (did not finish 3 trials in 3 sessions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2/3</t>
   </si>
   <si>
     <t>age</t>
@@ -400,10 +394,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -688,8 +682,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R756"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A734" workbookViewId="0">
-      <selection activeCell="I740" sqref="I740"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -714,7 +709,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>4</v>
@@ -794,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N2" s="2">
         <v>1</v>
@@ -848,7 +843,7 @@
         <v>2</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N3" s="2">
         <v>3</v>
@@ -902,7 +897,7 @@
         <v>3</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N4" s="2">
         <v>2</v>
@@ -956,7 +951,7 @@
         <v>4</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N5" s="2">
         <v>1</v>
@@ -1010,7 +1005,7 @@
         <v>5</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N6" s="2">
         <v>2</v>
@@ -1064,7 +1059,7 @@
         <v>6</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N7" s="2">
         <v>3</v>
@@ -1118,7 +1113,7 @@
         <v>7</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N8" s="2">
         <v>2</v>
@@ -1172,7 +1167,7 @@
         <v>8</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N9" s="2">
         <v>3</v>
@@ -1226,7 +1221,7 @@
         <v>9</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N10" s="2">
         <v>1</v>
@@ -1280,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N11" s="2">
         <v>2</v>
@@ -1334,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N12" s="2">
         <v>3</v>
@@ -1388,7 +1383,7 @@
         <v>3</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N13" s="2">
         <v>1</v>
@@ -1442,7 +1437,7 @@
         <v>4</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N14" s="2">
         <v>3</v>
@@ -1496,7 +1491,7 @@
         <v>5</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N15" s="2">
         <v>2</v>
@@ -1550,7 +1545,7 @@
         <v>6</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N16" s="2">
         <v>1</v>
@@ -1604,7 +1599,7 @@
         <v>7</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N17" s="2">
         <v>2</v>
@@ -1658,7 +1653,7 @@
         <v>8</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N18" s="2">
         <v>1</v>
@@ -1712,7 +1707,7 @@
         <v>9</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N19" s="2">
         <v>3</v>
@@ -1766,7 +1761,7 @@
         <v>19</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N20" s="2">
         <v>2</v>
@@ -1820,7 +1815,7 @@
         <v>20</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N21" s="2">
         <v>1</v>
@@ -1874,7 +1869,7 @@
         <v>21</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N22" s="2">
         <v>3</v>
@@ -1928,7 +1923,7 @@
         <v>22</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N23" s="2">
         <v>2</v>
@@ -1982,7 +1977,7 @@
         <v>23</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N24" s="2">
         <v>1</v>
@@ -2036,7 +2031,7 @@
         <v>24</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N25" s="2">
         <v>3</v>
@@ -2090,7 +2085,7 @@
         <v>25</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N26" s="2">
         <v>1</v>
@@ -2144,7 +2139,7 @@
         <v>26</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N27" s="2">
         <v>3</v>
@@ -2198,7 +2193,7 @@
         <v>27</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N28" s="2">
         <v>2</v>
@@ -2252,7 +2247,7 @@
         <v>28</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N29" s="2">
         <v>2</v>
@@ -2306,7 +2301,7 @@
         <v>29</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N30" s="2">
         <v>3</v>
@@ -2360,7 +2355,7 @@
         <v>30</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N31" s="2">
         <v>1</v>
@@ -2414,7 +2409,7 @@
         <v>31</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N32" s="2">
         <v>1</v>
@@ -2468,7 +2463,7 @@
         <v>32</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N33" s="2">
         <v>3</v>
@@ -2522,7 +2517,7 @@
         <v>33</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N34" s="2">
         <v>2</v>
@@ -2576,7 +2571,7 @@
         <v>34</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N35" s="2">
         <v>2</v>
@@ -2630,7 +2625,7 @@
         <v>35</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N36" s="2">
         <v>3</v>
@@ -2684,7 +2679,7 @@
         <v>36</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N37" s="2">
         <v>1</v>
@@ -2738,7 +2733,7 @@
         <v>1</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N38" s="2">
         <v>3</v>
@@ -2746,7 +2741,7 @@
       <c r="O38" s="2">
         <v>3</v>
       </c>
-      <c r="P38" s="8" t="s">
+      <c r="P38" s="7" t="s">
         <v>66</v>
       </c>
       <c r="Q38" s="2">
@@ -2792,7 +2787,7 @@
         <v>2</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N39" s="2">
         <v>2</v>
@@ -2800,7 +2795,7 @@
       <c r="O39" s="2">
         <v>2</v>
       </c>
-      <c r="P39" s="8" t="s">
+      <c r="P39" s="7" t="s">
         <v>66</v>
       </c>
       <c r="Q39" s="2">
@@ -2846,7 +2841,7 @@
         <v>3</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N40" s="2">
         <v>1</v>
@@ -2854,14 +2849,14 @@
       <c r="O40" s="2">
         <v>3</v>
       </c>
-      <c r="P40" s="8" t="s">
+      <c r="P40" s="7" t="s">
         <v>66</v>
       </c>
       <c r="Q40" s="2">
         <v>0</v>
       </c>
-      <c r="R40" s="8" t="s">
-        <v>93</v>
+      <c r="R40" s="7" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.15">
@@ -2902,7 +2897,7 @@
         <v>4</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N41" s="2">
         <v>2</v>
@@ -2910,7 +2905,7 @@
       <c r="O41" s="2">
         <v>2</v>
       </c>
-      <c r="P41" s="8" t="s">
+      <c r="P41" s="7" t="s">
         <v>66</v>
       </c>
       <c r="Q41" s="2">
@@ -2956,7 +2951,7 @@
         <v>5</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N42" s="2">
         <v>1</v>
@@ -2964,7 +2959,7 @@
       <c r="O42" s="2">
         <v>1</v>
       </c>
-      <c r="P42" s="8" t="s">
+      <c r="P42" s="7" t="s">
         <v>66</v>
       </c>
       <c r="Q42" s="2">
@@ -3010,7 +3005,7 @@
         <v>6</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N43" s="2">
         <v>3</v>
@@ -3018,14 +3013,14 @@
       <c r="O43" s="2">
         <v>3</v>
       </c>
-      <c r="P43" s="8" t="s">
+      <c r="P43" s="7" t="s">
         <v>66</v>
       </c>
       <c r="Q43" s="2">
         <v>1</v>
       </c>
-      <c r="R43" s="8" t="s">
-        <v>92</v>
+      <c r="R43" s="7" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.15">
@@ -3066,7 +3061,7 @@
         <v>7</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N44" s="2">
         <v>1</v>
@@ -3120,7 +3115,7 @@
         <v>8</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N45" s="2">
         <v>2</v>
@@ -3174,7 +3169,7 @@
         <v>9</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N46" s="2">
         <v>3</v>
@@ -3228,7 +3223,7 @@
         <v>10</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N47" s="2">
         <v>3</v>
@@ -3282,7 +3277,7 @@
         <v>11</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N48" s="2">
         <v>1</v>
@@ -3336,7 +3331,7 @@
         <v>12</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N49" s="2">
         <v>2</v>
@@ -3390,7 +3385,7 @@
         <v>13</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N50" s="2">
         <v>2</v>
@@ -3444,7 +3439,7 @@
         <v>14</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N51" s="2">
         <v>1</v>
@@ -3498,7 +3493,7 @@
         <v>15</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N52" s="2">
         <v>3</v>
@@ -3552,7 +3547,7 @@
         <v>16</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N53" s="2">
         <v>3</v>
@@ -3606,7 +3601,7 @@
         <v>17</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N54" s="2">
         <v>1</v>
@@ -3660,7 +3655,7 @@
         <v>18</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N55" s="2">
         <v>2</v>
@@ -3714,7 +3709,7 @@
         <v>19</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N56" s="2">
         <v>1</v>
@@ -3768,7 +3763,7 @@
         <v>20</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N57" s="2">
         <v>2</v>
@@ -3822,7 +3817,7 @@
         <v>21</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N58" s="2">
         <v>3</v>
@@ -3876,7 +3871,7 @@
         <v>22</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N59" s="2">
         <v>2</v>
@@ -3930,7 +3925,7 @@
         <v>23</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N60" s="2">
         <v>1</v>
@@ -3984,7 +3979,7 @@
         <v>24</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N61" s="2">
         <v>3</v>
@@ -4038,7 +4033,7 @@
         <v>25</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N62" s="2">
         <v>3</v>
@@ -4092,7 +4087,7 @@
         <v>26</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N63" s="2">
         <v>1</v>
@@ -4146,7 +4141,7 @@
         <v>27</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N64" s="2">
         <v>2</v>
@@ -4200,7 +4195,7 @@
         <v>28</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N65" s="2">
         <v>3</v>
@@ -4254,7 +4249,7 @@
         <v>29</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N66" s="2">
         <v>2</v>
@@ -4308,7 +4303,7 @@
         <v>30</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N67" s="2">
         <v>1</v>
@@ -4323,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="R67" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.15">
@@ -4364,7 +4359,7 @@
         <v>31</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N68" s="2">
         <v>3</v>
@@ -4418,7 +4413,7 @@
         <v>32</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N69" s="2">
         <v>2</v>
@@ -4472,7 +4467,7 @@
         <v>33</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N70" s="2">
         <v>1</v>
@@ -4487,7 +4482,7 @@
         <v>1</v>
       </c>
       <c r="R70" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.15">
@@ -4528,7 +4523,7 @@
         <v>1</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N71" s="3">
         <v>3</v>
@@ -4582,7 +4577,7 @@
         <v>2</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N72" s="3">
         <v>2</v>
@@ -4636,7 +4631,7 @@
         <v>3</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N73" s="3">
         <v>1</v>
@@ -4690,7 +4685,7 @@
         <v>4</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N74" s="3">
         <v>3</v>
@@ -4744,7 +4739,7 @@
         <v>5</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N75" s="3">
         <v>2</v>
@@ -4798,7 +4793,7 @@
         <v>6</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N76" s="3">
         <v>1</v>
@@ -4852,7 +4847,7 @@
         <v>7</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N77" s="3">
         <v>2</v>
@@ -4906,7 +4901,7 @@
         <v>8</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N78" s="3">
         <v>3</v>
@@ -4960,7 +4955,7 @@
         <v>9</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N79" s="3">
         <v>1</v>
@@ -5014,7 +5009,7 @@
         <v>10</v>
       </c>
       <c r="M80" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N80" s="3">
         <v>1</v>
@@ -5068,7 +5063,7 @@
         <v>11</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N81" s="3">
         <v>3</v>
@@ -5122,7 +5117,7 @@
         <v>12</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N82" s="3">
         <v>2</v>
@@ -5176,7 +5171,7 @@
         <v>13</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N83" s="3">
         <v>1</v>
@@ -5230,7 +5225,7 @@
         <v>14</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N84" s="3">
         <v>3</v>
@@ -5284,7 +5279,7 @@
         <v>15</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N85" s="3">
         <v>2</v>
@@ -5338,7 +5333,7 @@
         <v>16</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N86" s="3">
         <v>2</v>
@@ -5392,7 +5387,7 @@
         <v>17</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N87" s="3">
         <v>3</v>
@@ -5446,7 +5441,7 @@
         <v>18</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N88" s="3">
         <v>1</v>
@@ -5500,7 +5495,7 @@
         <v>19</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N89" s="3">
         <v>3</v>
@@ -5554,7 +5549,7 @@
         <v>20</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N90" s="3">
         <v>1</v>
@@ -5608,7 +5603,7 @@
         <v>21</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N91" s="3">
         <v>2</v>
@@ -5662,7 +5657,7 @@
         <v>22</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N92" s="3">
         <v>3</v>
@@ -5716,7 +5711,7 @@
         <v>23</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N93" s="3">
         <v>2</v>
@@ -5770,7 +5765,7 @@
         <v>24</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N94" s="3">
         <v>1</v>
@@ -5824,7 +5819,7 @@
         <v>25</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N95" s="3">
         <v>2</v>
@@ -5839,7 +5834,7 @@
         <v>1</v>
       </c>
       <c r="R95" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.15">
@@ -5880,7 +5875,7 @@
         <v>26</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N96" s="3">
         <v>1</v>
@@ -5934,7 +5929,7 @@
         <v>27</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N97" s="3">
         <v>3</v>
@@ -5988,7 +5983,7 @@
         <v>28</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N98" s="3">
         <v>2</v>
@@ -6003,7 +5998,7 @@
         <v>0</v>
       </c>
       <c r="R98" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.15">
@@ -6044,7 +6039,7 @@
         <v>29</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N99" s="3">
         <v>3</v>
@@ -6098,7 +6093,7 @@
         <v>30</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N100" s="3">
         <v>1</v>
@@ -6152,7 +6147,7 @@
         <v>31</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N101" s="3">
         <v>1</v>
@@ -6206,7 +6201,7 @@
         <v>32</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>2</v>
@@ -6260,7 +6255,7 @@
         <v>33</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N103" s="3">
         <v>3</v>
@@ -6314,7 +6309,7 @@
         <v>34</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N104" s="3">
         <v>2</v>
@@ -6329,7 +6324,7 @@
         <v>1</v>
       </c>
       <c r="R104" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.15">
@@ -6370,7 +6365,7 @@
         <v>35</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N105" s="3">
         <v>3</v>
@@ -6424,7 +6419,7 @@
         <v>36</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N106" s="3">
         <v>1</v>
@@ -6478,7 +6473,7 @@
         <v>1</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N107" s="3">
         <v>2</v>
@@ -6532,7 +6527,7 @@
         <v>2</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N108" s="3">
         <v>3</v>
@@ -6586,7 +6581,7 @@
         <v>3</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N109" s="3">
         <v>1</v>
@@ -6640,7 +6635,7 @@
         <v>4</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N110" s="3">
         <v>3</v>
@@ -6694,7 +6689,7 @@
         <v>5</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N111" s="3">
         <v>2</v>
@@ -6748,7 +6743,7 @@
         <v>6</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N112" s="3">
         <v>1</v>
@@ -6802,7 +6797,7 @@
         <v>7</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N113" s="3">
         <v>3</v>
@@ -6856,7 +6851,7 @@
         <v>8</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N114" s="3">
         <v>2</v>
@@ -6910,7 +6905,7 @@
         <v>9</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N115" s="3">
         <v>1</v>
@@ -6964,7 +6959,7 @@
         <v>10</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N116" s="3">
         <v>2</v>
@@ -7018,7 +7013,7 @@
         <v>11</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N117" s="3">
         <v>3</v>
@@ -7072,7 +7067,7 @@
         <v>12</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N118" s="3">
         <v>1</v>
@@ -7126,7 +7121,7 @@
         <v>13</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N119" s="3">
         <v>1</v>
@@ -7182,7 +7177,7 @@
         <v>14</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N120" s="3">
         <v>3</v>
@@ -7238,7 +7233,7 @@
         <v>15</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N121" s="3">
         <v>2</v>
@@ -7292,7 +7287,7 @@
         <v>16</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N122" s="3">
         <v>3</v>
@@ -7346,7 +7341,7 @@
         <v>17</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N123" s="3">
         <v>1</v>
@@ -7400,7 +7395,7 @@
         <v>18</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N124" s="3">
         <v>2</v>
@@ -7454,7 +7449,7 @@
         <v>19</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N125" s="3">
         <v>3</v>
@@ -7508,7 +7503,7 @@
         <v>20</v>
       </c>
       <c r="M126" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N126" s="3">
         <v>1</v>
@@ -7562,7 +7557,7 @@
         <v>21</v>
       </c>
       <c r="M127" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N127" s="3">
         <v>2</v>
@@ -7616,7 +7611,7 @@
         <v>22</v>
       </c>
       <c r="M128" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N128" s="3">
         <v>2</v>
@@ -7670,7 +7665,7 @@
         <v>23</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N129" s="3">
         <v>3</v>
@@ -7724,7 +7719,7 @@
         <v>24</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N130" s="3">
         <v>1</v>
@@ -7778,7 +7773,7 @@
         <v>25</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N131" s="3">
         <v>3</v>
@@ -7832,7 +7827,7 @@
         <v>26</v>
       </c>
       <c r="M132" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N132" s="3">
         <v>2</v>
@@ -7886,7 +7881,7 @@
         <v>27</v>
       </c>
       <c r="M133" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N133" s="3">
         <v>1</v>
@@ -7940,7 +7935,7 @@
         <v>28</v>
       </c>
       <c r="M134" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N134" s="3">
         <v>1</v>
@@ -7955,7 +7950,7 @@
         <v>0</v>
       </c>
       <c r="R134" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.15">
@@ -7996,7 +7991,7 @@
         <v>29</v>
       </c>
       <c r="M135" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N135" s="3">
         <v>2</v>
@@ -8050,7 +8045,7 @@
         <v>30</v>
       </c>
       <c r="M136" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N136" s="3">
         <v>3</v>
@@ -8104,7 +8099,7 @@
         <v>31</v>
       </c>
       <c r="M137" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N137" s="3">
         <v>1</v>
@@ -8119,7 +8114,7 @@
         <v>0</v>
       </c>
       <c r="R137" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.15">
@@ -8160,7 +8155,7 @@
         <v>32</v>
       </c>
       <c r="M138" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N138" s="3">
         <v>2</v>
@@ -8214,7 +8209,7 @@
         <v>33</v>
       </c>
       <c r="M139" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N139" s="3">
         <v>3</v>
@@ -8268,7 +8263,7 @@
         <v>34</v>
       </c>
       <c r="M140" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N140" s="3">
         <v>3</v>
@@ -8322,7 +8317,7 @@
         <v>35</v>
       </c>
       <c r="M141" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N141" s="3">
         <v>2</v>
@@ -8376,7 +8371,7 @@
         <v>36</v>
       </c>
       <c r="M142" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N142" s="3">
         <v>1</v>
@@ -8430,7 +8425,7 @@
         <v>1</v>
       </c>
       <c r="M143" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N143" s="3">
         <v>2</v>
@@ -8484,7 +8479,7 @@
         <v>2</v>
       </c>
       <c r="M144" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N144" s="3">
         <v>1</v>
@@ -8540,7 +8535,7 @@
         <v>3</v>
       </c>
       <c r="M145" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N145" s="3">
         <v>3</v>
@@ -8596,7 +8591,7 @@
         <v>4</v>
       </c>
       <c r="M146" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N146" s="3">
         <v>3</v>
@@ -8650,7 +8645,7 @@
         <v>5</v>
       </c>
       <c r="M147" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N147" s="3">
         <v>1</v>
@@ -8704,7 +8699,7 @@
         <v>6</v>
       </c>
       <c r="M148" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N148" s="3">
         <v>2</v>
@@ -8758,7 +8753,7 @@
         <v>7</v>
       </c>
       <c r="M149" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N149" s="3">
         <v>2</v>
@@ -8812,7 +8807,7 @@
         <v>8</v>
       </c>
       <c r="M150" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N150" s="3">
         <v>3</v>
@@ -8866,7 +8861,7 @@
         <v>9</v>
       </c>
       <c r="M151" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N151" s="3">
         <v>1</v>
@@ -8920,7 +8915,7 @@
         <v>10</v>
       </c>
       <c r="M152" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N152" s="3">
         <v>3</v>
@@ -8974,7 +8969,7 @@
         <v>11</v>
       </c>
       <c r="M153" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N153" s="3">
         <v>1</v>
@@ -9028,7 +9023,7 @@
         <v>12</v>
       </c>
       <c r="M154" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N154" s="3">
         <v>2</v>
@@ -9082,7 +9077,7 @@
         <v>13</v>
       </c>
       <c r="M155" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N155" s="3">
         <v>1</v>
@@ -9136,7 +9131,7 @@
         <v>14</v>
       </c>
       <c r="M156" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N156" s="3">
         <v>2</v>
@@ -9190,7 +9185,7 @@
         <v>15</v>
       </c>
       <c r="M157" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N157" s="3">
         <v>3</v>
@@ -9244,7 +9239,7 @@
         <v>16</v>
       </c>
       <c r="M158" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N158" s="3">
         <v>3</v>
@@ -9298,7 +9293,7 @@
         <v>17</v>
       </c>
       <c r="M159" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N159" s="3">
         <v>2</v>
@@ -9352,7 +9347,7 @@
         <v>18</v>
       </c>
       <c r="M160" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N160" s="3">
         <v>1</v>
@@ -9406,7 +9401,7 @@
         <v>19</v>
       </c>
       <c r="M161" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N161" s="3">
         <v>1</v>
@@ -9460,7 +9455,7 @@
         <v>20</v>
       </c>
       <c r="M162" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N162" s="3">
         <v>2</v>
@@ -9514,7 +9509,7 @@
         <v>21</v>
       </c>
       <c r="M163" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N163" s="3">
         <v>3</v>
@@ -9568,7 +9563,7 @@
         <v>22</v>
       </c>
       <c r="M164" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N164" s="3">
         <v>2</v>
@@ -9622,7 +9617,7 @@
         <v>23</v>
       </c>
       <c r="M165" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N165" s="3">
         <v>1</v>
@@ -9676,7 +9671,7 @@
         <v>24</v>
       </c>
       <c r="M166" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N166" s="3">
         <v>3</v>
@@ -9730,7 +9725,7 @@
         <v>25</v>
       </c>
       <c r="M167" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N167" s="3">
         <v>2</v>
@@ -9784,7 +9779,7 @@
         <v>26</v>
       </c>
       <c r="M168" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N168" s="3">
         <v>3</v>
@@ -9838,7 +9833,7 @@
         <v>27</v>
       </c>
       <c r="M169" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N169" s="3">
         <v>1</v>
@@ -9892,7 +9887,7 @@
         <v>28</v>
       </c>
       <c r="M170" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N170" s="3">
         <v>2</v>
@@ -9946,7 +9941,7 @@
         <v>29</v>
       </c>
       <c r="M171" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N171" s="3">
         <v>3</v>
@@ -10000,7 +9995,7 @@
         <v>30</v>
       </c>
       <c r="M172" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N172" s="3">
         <v>1</v>
@@ -10054,7 +10049,7 @@
         <v>31</v>
       </c>
       <c r="M173" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N173" s="3">
         <v>3</v>
@@ -10108,7 +10103,7 @@
         <v>32</v>
       </c>
       <c r="M174" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N174" s="3">
         <v>1</v>
@@ -10162,7 +10157,7 @@
         <v>33</v>
       </c>
       <c r="M175" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N175" s="3">
         <v>2</v>
@@ -10216,7 +10211,7 @@
         <v>34</v>
       </c>
       <c r="M176" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N176" s="3">
         <v>1</v>
@@ -10270,7 +10265,7 @@
         <v>35</v>
       </c>
       <c r="M177" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N177" s="3">
         <v>3</v>
@@ -10324,7 +10319,7 @@
         <v>36</v>
       </c>
       <c r="M178" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N178" s="3">
         <v>2</v>
@@ -10378,7 +10373,7 @@
         <v>1</v>
       </c>
       <c r="M179" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N179" s="3">
         <v>3</v>
@@ -10432,7 +10427,7 @@
         <v>2</v>
       </c>
       <c r="M180" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N180" s="3">
         <v>2</v>
@@ -10486,7 +10481,7 @@
         <v>3</v>
       </c>
       <c r="M181" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N181" s="3">
         <v>1</v>
@@ -10540,7 +10535,7 @@
         <v>4</v>
       </c>
       <c r="M182" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N182" s="3">
         <v>1</v>
@@ -10594,7 +10589,7 @@
         <v>5</v>
       </c>
       <c r="M183" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N183" s="3">
         <v>3</v>
@@ -10648,7 +10643,7 @@
         <v>6</v>
       </c>
       <c r="M184" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N184" s="3">
         <v>2</v>
@@ -10702,7 +10697,7 @@
         <v>7</v>
       </c>
       <c r="M185" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N185" s="3">
         <v>2</v>
@@ -10756,7 +10751,7 @@
         <v>8</v>
       </c>
       <c r="M186" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N186" s="3">
         <v>1</v>
@@ -10810,7 +10805,7 @@
         <v>9</v>
       </c>
       <c r="M187" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N187" s="3">
         <v>3</v>
@@ -10864,7 +10859,7 @@
         <v>10</v>
       </c>
       <c r="M188" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N188" s="3">
         <v>1</v>
@@ -10918,7 +10913,7 @@
         <v>11</v>
       </c>
       <c r="M189" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N189" s="3">
         <v>2</v>
@@ -10972,7 +10967,7 @@
         <v>12</v>
       </c>
       <c r="M190" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N190" s="3">
         <v>3</v>
@@ -11026,7 +11021,7 @@
         <v>13</v>
       </c>
       <c r="M191" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N191" s="3">
         <v>3</v>
@@ -11080,7 +11075,7 @@
         <v>14</v>
       </c>
       <c r="M192" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N192" s="3">
         <v>2</v>
@@ -11134,7 +11129,7 @@
         <v>15</v>
       </c>
       <c r="M193" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N193" s="3">
         <v>1</v>
@@ -11188,7 +11183,7 @@
         <v>16</v>
       </c>
       <c r="M194" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N194" s="3">
         <v>3</v>
@@ -11242,7 +11237,7 @@
         <v>17</v>
       </c>
       <c r="M195" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N195" s="3">
         <v>1</v>
@@ -11296,7 +11291,7 @@
         <v>18</v>
       </c>
       <c r="M196" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N196" s="3">
         <v>2</v>
@@ -11352,7 +11347,7 @@
         <v>19</v>
       </c>
       <c r="M197" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N197" s="3">
         <v>1</v>
@@ -11406,7 +11401,7 @@
         <v>20</v>
       </c>
       <c r="M198" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N198" s="3">
         <v>3</v>
@@ -11460,7 +11455,7 @@
         <v>21</v>
       </c>
       <c r="M199" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N199" s="3">
         <v>2</v>
@@ -11514,7 +11509,7 @@
         <v>22</v>
       </c>
       <c r="M200" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N200" s="3">
         <v>2</v>
@@ -11568,7 +11563,7 @@
         <v>23</v>
       </c>
       <c r="M201" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N201" s="3">
         <v>3</v>
@@ -11622,7 +11617,7 @@
         <v>24</v>
       </c>
       <c r="M202" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N202" s="3">
         <v>1</v>
@@ -11676,7 +11671,7 @@
         <v>25</v>
       </c>
       <c r="M203" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N203" s="3">
         <v>1</v>
@@ -11730,7 +11725,7 @@
         <v>26</v>
       </c>
       <c r="M204" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N204" s="3">
         <v>3</v>
@@ -11784,7 +11779,7 @@
         <v>27</v>
       </c>
       <c r="M205" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N205" s="3">
         <v>2</v>
@@ -11838,7 +11833,7 @@
         <v>1</v>
       </c>
       <c r="M206" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N206" s="3">
         <v>1</v>
@@ -11892,7 +11887,7 @@
         <v>2</v>
       </c>
       <c r="M207" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N207" s="3">
         <v>3</v>
@@ -11946,7 +11941,7 @@
         <v>3</v>
       </c>
       <c r="M208" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N208" s="3">
         <v>2</v>
@@ -12000,7 +11995,7 @@
         <v>4</v>
       </c>
       <c r="M209" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N209" s="3">
         <v>3</v>
@@ -12054,7 +12049,7 @@
         <v>5</v>
       </c>
       <c r="M210" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N210" s="3">
         <v>2</v>
@@ -12108,7 +12103,7 @@
         <v>6</v>
       </c>
       <c r="M211" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N211" s="3">
         <v>1</v>
@@ -12162,7 +12157,7 @@
         <v>7</v>
       </c>
       <c r="M212" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N212" s="3">
         <v>1</v>
@@ -12216,7 +12211,7 @@
         <v>8</v>
       </c>
       <c r="M213" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N213" s="3">
         <v>2</v>
@@ -12270,7 +12265,7 @@
         <v>9</v>
       </c>
       <c r="M214" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N214" s="3">
         <v>3</v>
@@ -12324,7 +12319,7 @@
         <v>10</v>
       </c>
       <c r="M215" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N215" s="3">
         <v>1</v>
@@ -12378,7 +12373,7 @@
         <v>11</v>
       </c>
       <c r="M216" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N216" s="3">
         <v>3</v>
@@ -12432,7 +12427,7 @@
         <v>12</v>
       </c>
       <c r="M217" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N217" s="3">
         <v>2</v>
@@ -12486,7 +12481,7 @@
         <v>13</v>
       </c>
       <c r="M218" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N218" s="3">
         <v>1</v>
@@ -12540,7 +12535,7 @@
         <v>14</v>
       </c>
       <c r="M219" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N219" s="3">
         <v>2</v>
@@ -12594,7 +12589,7 @@
         <v>15</v>
       </c>
       <c r="M220" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N220" s="3">
         <v>3</v>
@@ -12648,7 +12643,7 @@
         <v>16</v>
       </c>
       <c r="M221" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N221" s="3">
         <v>1</v>
@@ -12702,7 +12697,7 @@
         <v>17</v>
       </c>
       <c r="M222" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N222" s="3">
         <v>2</v>
@@ -12756,7 +12751,7 @@
         <v>18</v>
       </c>
       <c r="M223" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N223" s="3">
         <v>3</v>
@@ -12810,7 +12805,7 @@
         <v>19</v>
       </c>
       <c r="M224" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N224" s="3">
         <v>1</v>
@@ -12864,7 +12859,7 @@
         <v>20</v>
       </c>
       <c r="M225" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N225" s="3">
         <v>2</v>
@@ -12918,7 +12913,7 @@
         <v>21</v>
       </c>
       <c r="M226" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N226" s="3">
         <v>3</v>
@@ -12972,7 +12967,7 @@
         <v>22</v>
       </c>
       <c r="M227" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N227" s="3">
         <v>3</v>
@@ -13026,7 +13021,7 @@
         <v>23</v>
       </c>
       <c r="M228" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N228" s="3">
         <v>1</v>
@@ -13080,7 +13075,7 @@
         <v>24</v>
       </c>
       <c r="M229" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N229" s="3">
         <v>2</v>
@@ -13134,7 +13129,7 @@
         <v>25</v>
       </c>
       <c r="M230" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N230" s="3">
         <v>2</v>
@@ -13188,7 +13183,7 @@
         <v>26</v>
       </c>
       <c r="M231" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N231" s="3">
         <v>1</v>
@@ -13242,7 +13237,7 @@
         <v>27</v>
       </c>
       <c r="M232" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N232" s="3">
         <v>3</v>
@@ -13296,7 +13291,7 @@
         <v>28</v>
       </c>
       <c r="M233" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N233" s="3">
         <v>3</v>
@@ -13350,7 +13345,7 @@
         <v>29</v>
       </c>
       <c r="M234" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N234" s="3">
         <v>2</v>
@@ -13404,7 +13399,7 @@
         <v>30</v>
       </c>
       <c r="M235" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N235" s="3">
         <v>1</v>
@@ -13458,7 +13453,7 @@
         <v>31</v>
       </c>
       <c r="M236" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N236" s="3">
         <v>3</v>
@@ -13512,7 +13507,7 @@
         <v>32</v>
       </c>
       <c r="M237" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N237" s="3">
         <v>1</v>
@@ -13566,7 +13561,7 @@
         <v>33</v>
       </c>
       <c r="M238" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N238" s="3">
         <v>2</v>
@@ -13620,7 +13615,7 @@
         <v>34</v>
       </c>
       <c r="M239" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N239" s="3">
         <v>3</v>
@@ -13674,7 +13669,7 @@
         <v>35</v>
       </c>
       <c r="M240" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N240" s="3">
         <v>2</v>
@@ -13728,7 +13723,7 @@
         <v>36</v>
       </c>
       <c r="M241" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N241" s="3">
         <v>1</v>
@@ -13782,7 +13777,7 @@
         <v>1</v>
       </c>
       <c r="M242" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N242" s="3">
         <v>2</v>
@@ -13836,7 +13831,7 @@
         <v>2</v>
       </c>
       <c r="M243" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N243" s="3">
         <v>1</v>
@@ -13890,7 +13885,7 @@
         <v>3</v>
       </c>
       <c r="M244" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N244" s="3">
         <v>3</v>
@@ -13944,7 +13939,7 @@
         <v>4</v>
       </c>
       <c r="M245" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N245" s="3">
         <v>2</v>
@@ -13998,7 +13993,7 @@
         <v>5</v>
       </c>
       <c r="M246" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N246" s="3">
         <v>3</v>
@@ -14052,7 +14047,7 @@
         <v>6</v>
       </c>
       <c r="M247" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N247" s="3">
         <v>1</v>
@@ -14106,7 +14101,7 @@
         <v>7</v>
       </c>
       <c r="M248" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N248" s="3">
         <v>1</v>
@@ -14160,7 +14155,7 @@
         <v>8</v>
       </c>
       <c r="M249" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N249" s="3">
         <v>2</v>
@@ -14214,7 +14209,7 @@
         <v>9</v>
       </c>
       <c r="M250" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N250" s="3">
         <v>3</v>
@@ -14268,7 +14263,7 @@
         <v>10</v>
       </c>
       <c r="M251" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N251" s="3">
         <v>1</v>
@@ -14322,7 +14317,7 @@
         <v>11</v>
       </c>
       <c r="M252" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N252" s="3">
         <v>2</v>
@@ -14376,7 +14371,7 @@
         <v>12</v>
       </c>
       <c r="M253" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N253" s="3">
         <v>3</v>
@@ -14430,7 +14425,7 @@
         <v>13</v>
       </c>
       <c r="M254" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N254" s="3">
         <v>2</v>
@@ -14484,7 +14479,7 @@
         <v>14</v>
       </c>
       <c r="M255" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N255" s="3">
         <v>1</v>
@@ -14538,7 +14533,7 @@
         <v>15</v>
       </c>
       <c r="M256" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N256" s="3">
         <v>3</v>
@@ -14592,7 +14587,7 @@
         <v>16</v>
       </c>
       <c r="M257" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N257" s="3">
         <v>1</v>
@@ -14646,7 +14641,7 @@
         <v>17</v>
       </c>
       <c r="M258" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N258" s="3">
         <v>2</v>
@@ -14700,7 +14695,7 @@
         <v>18</v>
       </c>
       <c r="M259" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N259" s="3">
         <v>3</v>
@@ -14754,7 +14749,7 @@
         <v>19</v>
       </c>
       <c r="M260" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N260" s="3">
         <v>1</v>
@@ -14808,7 +14803,7 @@
         <v>20</v>
       </c>
       <c r="M261" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N261" s="3">
         <v>2</v>
@@ -14862,7 +14857,7 @@
         <v>21</v>
       </c>
       <c r="M262" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N262" s="3">
         <v>3</v>
@@ -14916,7 +14911,7 @@
         <v>22</v>
       </c>
       <c r="M263" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N263" s="3">
         <v>2</v>
@@ -14970,7 +14965,7 @@
         <v>23</v>
       </c>
       <c r="M264" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N264" s="3">
         <v>3</v>
@@ -15024,7 +15019,7 @@
         <v>24</v>
       </c>
       <c r="M265" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N265" s="3">
         <v>1</v>
@@ -15078,7 +15073,7 @@
         <v>25</v>
       </c>
       <c r="M266" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N266" s="3">
         <v>2</v>
@@ -15132,7 +15127,7 @@
         <v>26</v>
       </c>
       <c r="M267" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N267" s="3">
         <v>1</v>
@@ -15186,7 +15181,7 @@
         <v>27</v>
       </c>
       <c r="M268" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N268" s="3">
         <v>3</v>
@@ -15240,7 +15235,7 @@
         <v>28</v>
       </c>
       <c r="M269" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N269" s="3">
         <v>2</v>
@@ -15296,7 +15291,7 @@
         <v>29</v>
       </c>
       <c r="M270" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N270" s="3">
         <v>1</v>
@@ -15350,7 +15345,7 @@
         <v>30</v>
       </c>
       <c r="M271" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N271" s="3">
         <v>3</v>
@@ -15404,7 +15399,7 @@
         <v>31</v>
       </c>
       <c r="M272" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N272" s="3">
         <v>2</v>
@@ -15458,7 +15453,7 @@
         <v>32</v>
       </c>
       <c r="M273" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N273" s="3">
         <v>1</v>
@@ -15512,7 +15507,7 @@
         <v>33</v>
       </c>
       <c r="M274" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N274" s="3">
         <v>3</v>
@@ -15566,7 +15561,7 @@
         <v>34</v>
       </c>
       <c r="M275" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N275" s="3">
         <v>1</v>
@@ -15620,7 +15615,7 @@
         <v>35</v>
       </c>
       <c r="M276" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N276" s="3">
         <v>2</v>
@@ -15674,7 +15669,7 @@
         <v>36</v>
       </c>
       <c r="M277" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N277" s="3">
         <v>3</v>
@@ -15728,7 +15723,7 @@
         <v>1</v>
       </c>
       <c r="M278" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N278" s="3">
         <v>2</v>
@@ -15784,7 +15779,7 @@
         <v>2</v>
       </c>
       <c r="M279" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N279" s="3">
         <v>3</v>
@@ -15838,7 +15833,7 @@
         <v>3</v>
       </c>
       <c r="M280" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N280" s="3">
         <v>1</v>
@@ -15892,7 +15887,7 @@
         <v>4</v>
       </c>
       <c r="M281" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N281" s="3">
         <v>2</v>
@@ -15946,7 +15941,7 @@
         <v>5</v>
       </c>
       <c r="M282" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N282" s="3">
         <v>1</v>
@@ -16000,7 +15995,7 @@
         <v>6</v>
       </c>
       <c r="M283" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N283" s="3">
         <v>3</v>
@@ -16054,7 +16049,7 @@
         <v>7</v>
       </c>
       <c r="M284" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N284" s="3">
         <v>2</v>
@@ -16108,7 +16103,7 @@
         <v>8</v>
       </c>
       <c r="M285" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N285" s="3">
         <v>1</v>
@@ -16162,7 +16157,7 @@
         <v>9</v>
       </c>
       <c r="M286" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N286" s="3">
         <v>3</v>
@@ -16216,7 +16211,7 @@
         <v>10</v>
       </c>
       <c r="M287" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N287" s="3">
         <v>3</v>
@@ -16270,7 +16265,7 @@
         <v>11</v>
       </c>
       <c r="M288" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N288" s="3">
         <v>1</v>
@@ -16324,7 +16319,7 @@
         <v>12</v>
       </c>
       <c r="M289" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N289" s="3">
         <v>2</v>
@@ -16378,7 +16373,7 @@
         <v>13</v>
       </c>
       <c r="M290" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N290" s="3">
         <v>3</v>
@@ -16432,7 +16427,7 @@
         <v>14</v>
       </c>
       <c r="M291" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N291" s="3">
         <v>1</v>
@@ -16486,7 +16481,7 @@
         <v>15</v>
       </c>
       <c r="M292" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N292" s="3">
         <v>2</v>
@@ -16540,7 +16535,7 @@
         <v>16</v>
       </c>
       <c r="M293" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N293" s="3">
         <v>3</v>
@@ -16596,7 +16591,7 @@
         <v>17</v>
       </c>
       <c r="M294" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N294" s="3">
         <v>1</v>
@@ -16650,7 +16645,7 @@
         <v>18</v>
       </c>
       <c r="M295" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N295" s="3">
         <v>2</v>
@@ -16706,7 +16701,7 @@
         <v>19</v>
       </c>
       <c r="M296" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N296" s="3">
         <v>1</v>
@@ -16760,7 +16755,7 @@
         <v>20</v>
       </c>
       <c r="M297" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N297" s="3">
         <v>2</v>
@@ -16814,7 +16809,7 @@
         <v>21</v>
       </c>
       <c r="M298" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N298" s="3">
         <v>3</v>
@@ -16870,7 +16865,7 @@
         <v>22</v>
       </c>
       <c r="M299" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N299" s="3">
         <v>1</v>
@@ -16924,7 +16919,7 @@
         <v>23</v>
       </c>
       <c r="M300" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N300" s="3">
         <v>2</v>
@@ -16978,7 +16973,7 @@
         <v>24</v>
       </c>
       <c r="M301" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N301" s="3">
         <v>3</v>
@@ -17032,7 +17027,7 @@
         <v>25</v>
       </c>
       <c r="M302" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N302" s="3">
         <v>1</v>
@@ -17086,7 +17081,7 @@
         <v>26</v>
       </c>
       <c r="M303" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N303" s="3">
         <v>3</v>
@@ -17142,7 +17137,7 @@
         <v>27</v>
       </c>
       <c r="M304" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N304" s="3">
         <v>2</v>
@@ -17196,7 +17191,7 @@
         <v>28</v>
       </c>
       <c r="M305" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N305" s="3">
         <v>2</v>
@@ -17250,7 +17245,7 @@
         <v>29</v>
       </c>
       <c r="M306" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N306" s="3">
         <v>3</v>
@@ -17304,7 +17299,7 @@
         <v>30</v>
       </c>
       <c r="M307" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N307" s="3">
         <v>1</v>
@@ -17358,7 +17353,7 @@
         <v>31</v>
       </c>
       <c r="M308" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N308" s="3">
         <v>2</v>
@@ -17412,7 +17407,7 @@
         <v>32</v>
       </c>
       <c r="M309" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N309" s="3">
         <v>1</v>
@@ -17466,7 +17461,7 @@
         <v>33</v>
       </c>
       <c r="M310" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N310" s="3">
         <v>3</v>
@@ -17520,7 +17515,7 @@
         <v>34</v>
       </c>
       <c r="M311" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N311" s="3">
         <v>3</v>
@@ -17574,7 +17569,7 @@
         <v>35</v>
       </c>
       <c r="M312" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N312" s="3">
         <v>2</v>
@@ -17628,7 +17623,7 @@
         <v>36</v>
       </c>
       <c r="M313" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N313" s="3">
         <v>1</v>
@@ -17684,7 +17679,7 @@
         <v>1</v>
       </c>
       <c r="M314" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N314" s="3">
         <v>3</v>
@@ -17738,7 +17733,7 @@
         <v>2</v>
       </c>
       <c r="M315" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N315" s="3">
         <v>2</v>
@@ -17792,7 +17787,7 @@
         <v>3</v>
       </c>
       <c r="M316" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N316" s="3">
         <v>1</v>
@@ -17846,7 +17841,7 @@
         <v>4</v>
       </c>
       <c r="M317" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N317" s="3">
         <v>2</v>
@@ -17900,7 +17895,7 @@
         <v>5</v>
       </c>
       <c r="M318" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N318" s="3">
         <v>1</v>
@@ -17954,7 +17949,7 @@
         <v>6</v>
       </c>
       <c r="M319" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N319" s="3">
         <v>3</v>
@@ -18008,7 +18003,7 @@
         <v>7</v>
       </c>
       <c r="M320" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N320" s="3">
         <v>1</v>
@@ -18062,7 +18057,7 @@
         <v>8</v>
       </c>
       <c r="M321" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N321" s="3">
         <v>2</v>
@@ -18116,7 +18111,7 @@
         <v>9</v>
       </c>
       <c r="M322" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N322" s="3">
         <v>3</v>
@@ -18170,7 +18165,7 @@
         <v>10</v>
       </c>
       <c r="M323" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N323" s="3">
         <v>2</v>
@@ -18224,7 +18219,7 @@
         <v>11</v>
       </c>
       <c r="M324" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N324" s="3">
         <v>1</v>
@@ -18278,7 +18273,7 @@
         <v>12</v>
       </c>
       <c r="M325" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N325" s="3">
         <v>3</v>
@@ -18332,7 +18327,7 @@
         <v>13</v>
       </c>
       <c r="M326" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N326" s="3">
         <v>3</v>
@@ -18386,7 +18381,7 @@
         <v>14</v>
       </c>
       <c r="M327" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N327" s="3">
         <v>2</v>
@@ -18440,7 +18435,7 @@
         <v>15</v>
       </c>
       <c r="M328" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N328" s="3">
         <v>1</v>
@@ -18494,7 +18489,7 @@
         <v>16</v>
       </c>
       <c r="M329" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N329" s="3">
         <v>3</v>
@@ -18548,7 +18543,7 @@
         <v>17</v>
       </c>
       <c r="M330" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N330" s="3">
         <v>2</v>
@@ -18602,7 +18597,7 @@
         <v>18</v>
       </c>
       <c r="M331" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N331" s="3">
         <v>1</v>
@@ -18656,7 +18651,7 @@
         <v>19</v>
       </c>
       <c r="M332" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N332" s="3">
         <v>2</v>
@@ -18710,7 +18705,7 @@
         <v>20</v>
       </c>
       <c r="M333" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N333" s="3">
         <v>3</v>
@@ -18764,7 +18759,7 @@
         <v>21</v>
       </c>
       <c r="M334" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N334" s="3">
         <v>1</v>
@@ -18818,7 +18813,7 @@
         <v>22</v>
       </c>
       <c r="M335" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N335" s="3">
         <v>1</v>
@@ -18872,7 +18867,7 @@
         <v>23</v>
       </c>
       <c r="M336" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N336" s="3">
         <v>3</v>
@@ -18926,7 +18921,7 @@
         <v>24</v>
       </c>
       <c r="M337" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N337" s="3">
         <v>2</v>
@@ -18980,7 +18975,7 @@
         <v>25</v>
       </c>
       <c r="M338" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N338" s="3">
         <v>3</v>
@@ -19034,7 +19029,7 @@
         <v>26</v>
       </c>
       <c r="M339" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N339" s="3">
         <v>1</v>
@@ -19088,7 +19083,7 @@
         <v>27</v>
       </c>
       <c r="M340" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N340" s="3">
         <v>2</v>
@@ -19142,7 +19137,7 @@
         <v>28</v>
       </c>
       <c r="M341" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N341" s="2">
         <v>1</v>
@@ -19196,7 +19191,7 @@
         <v>29</v>
       </c>
       <c r="M342" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N342" s="2">
         <v>2</v>
@@ -19250,7 +19245,7 @@
         <v>30</v>
       </c>
       <c r="M343" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N343" s="2">
         <v>3</v>
@@ -19304,7 +19299,7 @@
         <v>31</v>
       </c>
       <c r="M344" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N344" s="2">
         <v>3</v>
@@ -19358,7 +19353,7 @@
         <v>32</v>
       </c>
       <c r="M345" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N345" s="2">
         <v>2</v>
@@ -19412,7 +19407,7 @@
         <v>33</v>
       </c>
       <c r="M346" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N346" s="2">
         <v>1</v>
@@ -19466,7 +19461,7 @@
         <v>34</v>
       </c>
       <c r="M347" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N347" s="2">
         <v>3</v>
@@ -19520,7 +19515,7 @@
         <v>35</v>
       </c>
       <c r="M348" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N348" s="2">
         <v>1</v>
@@ -19574,7 +19569,7 @@
         <v>36</v>
       </c>
       <c r="M349" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N349" s="2">
         <v>2</v>
@@ -19628,7 +19623,7 @@
         <v>1</v>
       </c>
       <c r="M350" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N350" s="3">
         <v>2</v>
@@ -19684,7 +19679,7 @@
         <v>2</v>
       </c>
       <c r="M351" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N351" s="3">
         <v>1</v>
@@ -19738,7 +19733,7 @@
         <v>3</v>
       </c>
       <c r="M352" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N352" s="3">
         <v>3</v>
@@ -19792,7 +19787,7 @@
         <v>4</v>
       </c>
       <c r="M353" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N353" s="3">
         <v>3</v>
@@ -19846,7 +19841,7 @@
         <v>5</v>
       </c>
       <c r="M354" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N354" s="3">
         <v>1</v>
@@ -19900,7 +19895,7 @@
         <v>6</v>
       </c>
       <c r="M355" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N355" s="3">
         <v>2</v>
@@ -19954,7 +19949,7 @@
         <v>7</v>
       </c>
       <c r="M356" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N356" s="3">
         <v>1</v>
@@ -20008,7 +20003,7 @@
         <v>8</v>
       </c>
       <c r="M357" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N357" s="3">
         <v>2</v>
@@ -20062,7 +20057,7 @@
         <v>9</v>
       </c>
       <c r="M358" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N358" s="3">
         <v>3</v>
@@ -20116,7 +20111,7 @@
         <v>10</v>
       </c>
       <c r="M359" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N359" s="3">
         <v>1</v>
@@ -20170,7 +20165,7 @@
         <v>11</v>
       </c>
       <c r="M360" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N360" s="3">
         <v>3</v>
@@ -20224,7 +20219,7 @@
         <v>12</v>
       </c>
       <c r="M361" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N361" s="3">
         <v>2</v>
@@ -20278,7 +20273,7 @@
         <v>13</v>
       </c>
       <c r="M362" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N362" s="3">
         <v>3</v>
@@ -20332,7 +20327,7 @@
         <v>14</v>
       </c>
       <c r="M363" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N363" s="3">
         <v>2</v>
@@ -20386,7 +20381,7 @@
         <v>15</v>
       </c>
       <c r="M364" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N364" s="3">
         <v>1</v>
@@ -20440,7 +20435,7 @@
         <v>16</v>
       </c>
       <c r="M365" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N365" s="3">
         <v>3</v>
@@ -20494,7 +20489,7 @@
         <v>17</v>
       </c>
       <c r="M366" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N366" s="3">
         <v>1</v>
@@ -20548,7 +20543,7 @@
         <v>18</v>
       </c>
       <c r="M367" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N367" s="3">
         <v>2</v>
@@ -20602,7 +20597,7 @@
         <v>19</v>
       </c>
       <c r="M368" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N368" s="3">
         <v>1</v>
@@ -20656,7 +20651,7 @@
         <v>20</v>
       </c>
       <c r="M369" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N369" s="3">
         <v>2</v>
@@ -20710,7 +20705,7 @@
         <v>21</v>
       </c>
       <c r="M370" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N370" s="3">
         <v>3</v>
@@ -20764,7 +20759,7 @@
         <v>22</v>
       </c>
       <c r="M371" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N371" s="3">
         <v>3</v>
@@ -20818,7 +20813,7 @@
         <v>23</v>
       </c>
       <c r="M372" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N372" s="3">
         <v>2</v>
@@ -20872,7 +20867,7 @@
         <v>24</v>
       </c>
       <c r="M373" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N373" s="3">
         <v>1</v>
@@ -20926,7 +20921,7 @@
         <v>25</v>
       </c>
       <c r="M374" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N374" s="3">
         <v>2</v>
@@ -20980,7 +20975,7 @@
         <v>26</v>
       </c>
       <c r="M375" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N375" s="3">
         <v>3</v>
@@ -21034,7 +21029,7 @@
         <v>27</v>
       </c>
       <c r="M376" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N376" s="3">
         <v>1</v>
@@ -21090,7 +21085,7 @@
         <v>28</v>
       </c>
       <c r="M377" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N377" s="3">
         <v>3</v>
@@ -21144,7 +21139,7 @@
         <v>29</v>
       </c>
       <c r="M378" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N378" s="3">
         <v>1</v>
@@ -21198,7 +21193,7 @@
         <v>30</v>
       </c>
       <c r="M379" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N379" s="3">
         <v>2</v>
@@ -21254,7 +21249,7 @@
         <v>31</v>
       </c>
       <c r="M380" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N380" s="3">
         <v>3</v>
@@ -21308,7 +21303,7 @@
         <v>32</v>
       </c>
       <c r="M381" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N381" s="3">
         <v>2</v>
@@ -21362,7 +21357,7 @@
         <v>33</v>
       </c>
       <c r="M382" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N382" s="3">
         <v>1</v>
@@ -21416,7 +21411,7 @@
         <v>34</v>
       </c>
       <c r="M383" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N383" s="3">
         <v>1</v>
@@ -21470,7 +21465,7 @@
         <v>35</v>
       </c>
       <c r="M384" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N384" s="3">
         <v>3</v>
@@ -21524,7 +21519,7 @@
         <v>36</v>
       </c>
       <c r="M385" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N385" s="3">
         <v>2</v>
@@ -21578,7 +21573,7 @@
         <v>1</v>
       </c>
       <c r="M386" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N386" s="3">
         <v>1</v>
@@ -21632,7 +21627,7 @@
         <v>2</v>
       </c>
       <c r="M387" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N387" s="3">
         <v>3</v>
@@ -21686,7 +21681,7 @@
         <v>3</v>
       </c>
       <c r="M388" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N388" s="3">
         <v>2</v>
@@ -21740,7 +21735,7 @@
         <v>4</v>
       </c>
       <c r="M389" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N389" s="3">
         <v>1</v>
@@ -21794,7 +21789,7 @@
         <v>5</v>
       </c>
       <c r="M390" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N390" s="3">
         <v>2</v>
@@ -21848,7 +21843,7 @@
         <v>6</v>
       </c>
       <c r="M391" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N391" s="3">
         <v>3</v>
@@ -21902,7 +21897,7 @@
         <v>7</v>
       </c>
       <c r="M392" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N392" s="3">
         <v>2</v>
@@ -21956,7 +21951,7 @@
         <v>8</v>
       </c>
       <c r="M393" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N393" s="3">
         <v>1</v>
@@ -22010,7 +22005,7 @@
         <v>9</v>
       </c>
       <c r="M394" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N394" s="3">
         <v>3</v>
@@ -22054,8 +22049,8 @@
       <c r="I395" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J395" s="7" t="s">
-        <v>99</v>
+      <c r="J395" s="8">
+        <v>2</v>
       </c>
       <c r="K395" s="2">
         <v>1</v>
@@ -22064,7 +22059,7 @@
         <v>10</v>
       </c>
       <c r="M395" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N395" s="3">
         <v>1</v>
@@ -22079,7 +22074,7 @@
         <v>0</v>
       </c>
       <c r="R395" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="396" spans="1:18" x14ac:dyDescent="0.15">
@@ -22111,7 +22106,7 @@
         <v>19</v>
       </c>
       <c r="J396" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K396" s="2">
         <v>1</v>
@@ -22120,7 +22115,7 @@
         <v>11</v>
       </c>
       <c r="M396" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N396" s="3">
         <v>3</v>
@@ -22165,7 +22160,7 @@
         <v>19</v>
       </c>
       <c r="J397" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K397" s="2">
         <v>1</v>
@@ -22174,7 +22169,7 @@
         <v>12</v>
       </c>
       <c r="M397" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N397" s="3">
         <v>2</v>
@@ -22219,7 +22214,7 @@
         <v>19</v>
       </c>
       <c r="J398" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K398" s="2">
         <v>2</v>
@@ -22228,7 +22223,7 @@
         <v>13</v>
       </c>
       <c r="M398" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N398" s="3">
         <v>2</v>
@@ -22273,7 +22268,7 @@
         <v>19</v>
       </c>
       <c r="J399" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K399" s="2">
         <v>2</v>
@@ -22282,7 +22277,7 @@
         <v>14</v>
       </c>
       <c r="M399" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N399" s="3">
         <v>3</v>
@@ -22327,7 +22322,7 @@
         <v>19</v>
       </c>
       <c r="J400" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K400" s="2">
         <v>2</v>
@@ -22336,7 +22331,7 @@
         <v>15</v>
       </c>
       <c r="M400" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N400" s="3">
         <v>1</v>
@@ -22381,7 +22376,7 @@
         <v>19</v>
       </c>
       <c r="J401" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K401" s="2">
         <v>3</v>
@@ -22390,7 +22385,7 @@
         <v>16</v>
       </c>
       <c r="M401" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N401" s="3">
         <v>3</v>
@@ -22435,7 +22430,7 @@
         <v>19</v>
       </c>
       <c r="J402" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K402" s="2">
         <v>3</v>
@@ -22444,7 +22439,7 @@
         <v>17</v>
       </c>
       <c r="M402" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N402" s="3">
         <v>1</v>
@@ -22489,7 +22484,7 @@
         <v>19</v>
       </c>
       <c r="J403" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K403" s="2">
         <v>3</v>
@@ -22498,7 +22493,7 @@
         <v>18</v>
       </c>
       <c r="M403" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N403" s="3">
         <v>2</v>
@@ -22543,7 +22538,7 @@
         <v>19</v>
       </c>
       <c r="J404" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K404" s="2">
         <v>1</v>
@@ -22552,7 +22547,7 @@
         <v>19</v>
       </c>
       <c r="M404" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N404" s="3">
         <v>2</v>
@@ -22597,7 +22592,7 @@
         <v>19</v>
       </c>
       <c r="J405" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K405" s="2">
         <v>1</v>
@@ -22606,7 +22601,7 @@
         <v>20</v>
       </c>
       <c r="M405" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N405" s="3">
         <v>3</v>
@@ -22651,7 +22646,7 @@
         <v>19</v>
       </c>
       <c r="J406" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K406" s="2">
         <v>1</v>
@@ -22660,7 +22655,7 @@
         <v>21</v>
       </c>
       <c r="M406" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N406" s="3">
         <v>1</v>
@@ -22705,7 +22700,7 @@
         <v>19</v>
       </c>
       <c r="J407" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K407" s="2">
         <v>2</v>
@@ -22714,7 +22709,7 @@
         <v>22</v>
       </c>
       <c r="M407" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N407" s="3">
         <v>2</v>
@@ -22759,7 +22754,7 @@
         <v>19</v>
       </c>
       <c r="J408" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K408" s="2">
         <v>2</v>
@@ -22768,7 +22763,7 @@
         <v>23</v>
       </c>
       <c r="M408" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N408" s="3">
         <v>1</v>
@@ -22813,7 +22808,7 @@
         <v>19</v>
       </c>
       <c r="J409" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K409" s="2">
         <v>2</v>
@@ -22822,7 +22817,7 @@
         <v>24</v>
       </c>
       <c r="M409" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N409" s="3">
         <v>3</v>
@@ -22867,7 +22862,7 @@
         <v>19</v>
       </c>
       <c r="J410" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K410" s="2">
         <v>3</v>
@@ -22876,7 +22871,7 @@
         <v>25</v>
       </c>
       <c r="M410" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N410" s="3">
         <v>3</v>
@@ -22921,7 +22916,7 @@
         <v>19</v>
       </c>
       <c r="J411" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K411" s="2">
         <v>3</v>
@@ -22930,7 +22925,7 @@
         <v>26</v>
       </c>
       <c r="M411" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N411" s="3">
         <v>2</v>
@@ -22975,7 +22970,7 @@
         <v>19</v>
       </c>
       <c r="J412" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K412" s="2">
         <v>3</v>
@@ -22984,7 +22979,7 @@
         <v>27</v>
       </c>
       <c r="M412" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N412" s="3">
         <v>1</v>
@@ -23029,7 +23024,7 @@
         <v>19</v>
       </c>
       <c r="J413" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K413" s="2">
         <v>1</v>
@@ -23038,7 +23033,7 @@
         <v>28</v>
       </c>
       <c r="M413" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N413" s="3">
         <v>3</v>
@@ -23083,7 +23078,7 @@
         <v>19</v>
       </c>
       <c r="J414" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K414" s="2">
         <v>1</v>
@@ -23092,7 +23087,7 @@
         <v>29</v>
       </c>
       <c r="M414" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N414" s="3">
         <v>2</v>
@@ -23107,7 +23102,7 @@
         <v>0</v>
       </c>
       <c r="R414" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="415" spans="1:18" x14ac:dyDescent="0.15">
@@ -23148,7 +23143,7 @@
         <v>1</v>
       </c>
       <c r="M415" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N415" s="3">
         <v>3</v>
@@ -23202,7 +23197,7 @@
         <v>2</v>
       </c>
       <c r="M416" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N416" s="3">
         <v>2</v>
@@ -23256,7 +23251,7 @@
         <v>3</v>
       </c>
       <c r="M417" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N417" s="3">
         <v>1</v>
@@ -23310,7 +23305,7 @@
         <v>4</v>
       </c>
       <c r="M418" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N418" s="3">
         <v>2</v>
@@ -23364,7 +23359,7 @@
         <v>5</v>
       </c>
       <c r="M419" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N419" s="3">
         <v>1</v>
@@ -23418,7 +23413,7 @@
         <v>6</v>
       </c>
       <c r="M420" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N420" s="3">
         <v>3</v>
@@ -23472,7 +23467,7 @@
         <v>7</v>
       </c>
       <c r="M421" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N421" s="3">
         <v>1</v>
@@ -23526,7 +23521,7 @@
         <v>8</v>
       </c>
       <c r="M422" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N422" s="3">
         <v>2</v>
@@ -23582,7 +23577,7 @@
         <v>9</v>
       </c>
       <c r="M423" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N423" s="3">
         <v>3</v>
@@ -23636,7 +23631,7 @@
         <v>10</v>
       </c>
       <c r="M424" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N424" s="3">
         <v>2</v>
@@ -23690,7 +23685,7 @@
         <v>11</v>
       </c>
       <c r="M425" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N425" s="3">
         <v>1</v>
@@ -23744,7 +23739,7 @@
         <v>12</v>
       </c>
       <c r="M426" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N426" s="3">
         <v>3</v>
@@ -23800,7 +23795,7 @@
         <v>13</v>
       </c>
       <c r="M427" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N427" s="3">
         <v>3</v>
@@ -23854,7 +23849,7 @@
         <v>14</v>
       </c>
       <c r="M428" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N428" s="3">
         <v>1</v>
@@ -23908,7 +23903,7 @@
         <v>15</v>
       </c>
       <c r="M429" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N429" s="3">
         <v>2</v>
@@ -23962,7 +23957,7 @@
         <v>16</v>
       </c>
       <c r="M430" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N430" s="3">
         <v>1</v>
@@ -24016,7 +24011,7 @@
         <v>17</v>
       </c>
       <c r="M431" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N431" s="3">
         <v>2</v>
@@ -24070,7 +24065,7 @@
         <v>18</v>
       </c>
       <c r="M432" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N432" s="3">
         <v>3</v>
@@ -24124,7 +24119,7 @@
         <v>19</v>
       </c>
       <c r="M433" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N433" s="3">
         <v>1</v>
@@ -24132,7 +24127,7 @@
       <c r="O433" s="2">
         <v>3</v>
       </c>
-      <c r="P433" s="8" t="s">
+      <c r="P433" s="7" t="s">
         <v>66</v>
       </c>
       <c r="Q433" s="2">
@@ -24178,7 +24173,7 @@
         <v>20</v>
       </c>
       <c r="M434" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N434" s="3">
         <v>2</v>
@@ -24232,7 +24227,7 @@
         <v>21</v>
       </c>
       <c r="M435" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N435" s="3">
         <v>3</v>
@@ -24240,7 +24235,7 @@
       <c r="O435" s="2">
         <v>3</v>
       </c>
-      <c r="P435" s="8" t="s">
+      <c r="P435" s="7" t="s">
         <v>66</v>
       </c>
       <c r="Q435" s="2">
@@ -24286,7 +24281,7 @@
         <v>22</v>
       </c>
       <c r="M436" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N436" s="3">
         <v>1</v>
@@ -24294,7 +24289,7 @@
       <c r="O436" s="2">
         <v>1</v>
       </c>
-      <c r="P436" s="8" t="s">
+      <c r="P436" s="7" t="s">
         <v>66</v>
       </c>
       <c r="Q436" s="2">
@@ -24340,7 +24335,7 @@
         <v>23</v>
       </c>
       <c r="M437" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N437" s="3">
         <v>3</v>
@@ -24348,7 +24343,7 @@
       <c r="O437" s="2">
         <v>3</v>
       </c>
-      <c r="P437" s="8" t="s">
+      <c r="P437" s="7" t="s">
         <v>66</v>
       </c>
       <c r="Q437" s="2">
@@ -24394,7 +24389,7 @@
         <v>24</v>
       </c>
       <c r="M438" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N438" s="3">
         <v>2</v>
@@ -24402,7 +24397,7 @@
       <c r="O438" s="2">
         <v>2</v>
       </c>
-      <c r="P438" s="8" t="s">
+      <c r="P438" s="7" t="s">
         <v>66</v>
       </c>
       <c r="Q438" s="2">
@@ -24448,7 +24443,7 @@
         <v>25</v>
       </c>
       <c r="M439" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N439" s="3">
         <v>3</v>
@@ -24456,7 +24451,7 @@
       <c r="O439" s="2">
         <v>3</v>
       </c>
-      <c r="P439" s="8" t="s">
+      <c r="P439" s="7" t="s">
         <v>66</v>
       </c>
       <c r="Q439" s="2">
@@ -24502,7 +24497,7 @@
         <v>26</v>
       </c>
       <c r="M440" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N440" s="3">
         <v>1</v>
@@ -24510,7 +24505,7 @@
       <c r="O440" s="2">
         <v>1</v>
       </c>
-      <c r="P440" s="8" t="s">
+      <c r="P440" s="7" t="s">
         <v>66</v>
       </c>
       <c r="Q440" s="2">
@@ -24556,7 +24551,7 @@
         <v>27</v>
       </c>
       <c r="M441" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N441" s="3">
         <v>2</v>
@@ -24564,7 +24559,7 @@
       <c r="O441" s="2">
         <v>3</v>
       </c>
-      <c r="P441" s="8" t="s">
+      <c r="P441" s="7" t="s">
         <v>66</v>
       </c>
       <c r="Q441" s="2">
@@ -24610,7 +24605,7 @@
         <v>28</v>
       </c>
       <c r="M442" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N442" s="3">
         <v>1</v>
@@ -24618,7 +24613,7 @@
       <c r="O442" s="2">
         <v>1</v>
       </c>
-      <c r="P442" s="8" t="s">
+      <c r="P442" s="7" t="s">
         <v>66</v>
       </c>
       <c r="Q442" s="2">
@@ -24664,7 +24659,7 @@
         <v>29</v>
       </c>
       <c r="M443" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N443" s="3">
         <v>2</v>
@@ -24672,7 +24667,7 @@
       <c r="O443" s="2">
         <v>1</v>
       </c>
-      <c r="P443" s="8" t="s">
+      <c r="P443" s="7" t="s">
         <v>66</v>
       </c>
       <c r="Q443" s="2">
@@ -24718,7 +24713,7 @@
         <v>30</v>
       </c>
       <c r="M444" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N444" s="3">
         <v>3</v>
@@ -24726,7 +24721,7 @@
       <c r="O444" s="2">
         <v>3</v>
       </c>
-      <c r="P444" s="8" t="s">
+      <c r="P444" s="7" t="s">
         <v>66</v>
       </c>
       <c r="Q444" s="2">
@@ -24772,7 +24767,7 @@
         <v>31</v>
       </c>
       <c r="M445" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N445" s="3">
         <v>1</v>
@@ -24780,7 +24775,7 @@
       <c r="O445" s="2">
         <v>1</v>
       </c>
-      <c r="P445" s="8" t="s">
+      <c r="P445" s="7" t="s">
         <v>66</v>
       </c>
       <c r="Q445" s="2">
@@ -24826,7 +24821,7 @@
         <v>32</v>
       </c>
       <c r="M446" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N446" s="3">
         <v>3</v>
@@ -24834,7 +24829,7 @@
       <c r="O446" s="2">
         <v>3</v>
       </c>
-      <c r="P446" s="8" t="s">
+      <c r="P446" s="7" t="s">
         <v>66</v>
       </c>
       <c r="Q446" s="2">
@@ -24880,7 +24875,7 @@
         <v>33</v>
       </c>
       <c r="M447" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N447" s="3">
         <v>2</v>
@@ -24888,7 +24883,7 @@
       <c r="O447" s="2">
         <v>2</v>
       </c>
-      <c r="P447" s="8" t="s">
+      <c r="P447" s="7" t="s">
         <v>66</v>
       </c>
       <c r="Q447" s="2">
@@ -24934,7 +24929,7 @@
         <v>34</v>
       </c>
       <c r="M448" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N448" s="3">
         <v>1</v>
@@ -24942,7 +24937,7 @@
       <c r="O448" s="2">
         <v>3</v>
       </c>
-      <c r="P448" s="8" t="s">
+      <c r="P448" s="7" t="s">
         <v>66</v>
       </c>
       <c r="Q448" s="2">
@@ -24988,7 +24983,7 @@
         <v>35</v>
       </c>
       <c r="M449" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N449" s="3">
         <v>3</v>
@@ -24996,7 +24991,7 @@
       <c r="O449" s="2">
         <v>3</v>
       </c>
-      <c r="P449" s="8" t="s">
+      <c r="P449" s="7" t="s">
         <v>66</v>
       </c>
       <c r="Q449" s="2">
@@ -25042,7 +25037,7 @@
         <v>36</v>
       </c>
       <c r="M450" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N450" s="3">
         <v>2</v>
@@ -25096,7 +25091,7 @@
         <v>1</v>
       </c>
       <c r="M451" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N451" s="3">
         <v>3</v>
@@ -25150,7 +25145,7 @@
         <v>2</v>
       </c>
       <c r="M452" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N452" s="3">
         <v>1</v>
@@ -25204,7 +25199,7 @@
         <v>3</v>
       </c>
       <c r="M453" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N453" s="3">
         <v>2</v>
@@ -25258,7 +25253,7 @@
         <v>4</v>
       </c>
       <c r="M454" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N454" s="3">
         <v>1</v>
@@ -25312,7 +25307,7 @@
         <v>5</v>
       </c>
       <c r="M455" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N455" s="3">
         <v>3</v>
@@ -25366,7 +25361,7 @@
         <v>6</v>
       </c>
       <c r="M456" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N456" s="3">
         <v>2</v>
@@ -25420,7 +25415,7 @@
         <v>7</v>
       </c>
       <c r="M457" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N457" s="3">
         <v>1</v>
@@ -25474,7 +25469,7 @@
         <v>8</v>
       </c>
       <c r="M458" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N458" s="3">
         <v>3</v>
@@ -25528,7 +25523,7 @@
         <v>9</v>
       </c>
       <c r="M459" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N459" s="3">
         <v>2</v>
@@ -25584,7 +25579,7 @@
         <v>10</v>
       </c>
       <c r="M460" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N460" s="3">
         <v>1</v>
@@ -25638,7 +25633,7 @@
         <v>11</v>
       </c>
       <c r="M461" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N461" s="3">
         <v>2</v>
@@ -25692,7 +25687,7 @@
         <v>12</v>
       </c>
       <c r="M462" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N462" s="3">
         <v>3</v>
@@ -25746,7 +25741,7 @@
         <v>13</v>
       </c>
       <c r="M463" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N463" s="3">
         <v>2</v>
@@ -25800,7 +25795,7 @@
         <v>14</v>
       </c>
       <c r="M464" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N464" s="3">
         <v>1</v>
@@ -25854,7 +25849,7 @@
         <v>15</v>
       </c>
       <c r="M465" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N465" s="3">
         <v>3</v>
@@ -25908,7 +25903,7 @@
         <v>16</v>
       </c>
       <c r="M466" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N466" s="3">
         <v>2</v>
@@ -25962,7 +25957,7 @@
         <v>17</v>
       </c>
       <c r="M467" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N467" s="3">
         <v>1</v>
@@ -26016,7 +26011,7 @@
         <v>18</v>
       </c>
       <c r="M468" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N468" s="3">
         <v>3</v>
@@ -26070,7 +26065,7 @@
         <v>19</v>
       </c>
       <c r="M469" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N469" s="3">
         <v>3</v>
@@ -26124,7 +26119,7 @@
         <v>20</v>
       </c>
       <c r="M470" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N470" s="3">
         <v>2</v>
@@ -26178,7 +26173,7 @@
         <v>21</v>
       </c>
       <c r="M471" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N471" s="3">
         <v>1</v>
@@ -26234,7 +26229,7 @@
         <v>22</v>
       </c>
       <c r="M472" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N472" s="3">
         <v>3</v>
@@ -26288,7 +26283,7 @@
         <v>23</v>
       </c>
       <c r="M473" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N473" s="3">
         <v>2</v>
@@ -26342,7 +26337,7 @@
         <v>24</v>
       </c>
       <c r="M474" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N474" s="3">
         <v>1</v>
@@ -26396,7 +26391,7 @@
         <v>25</v>
       </c>
       <c r="M475" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N475" s="3">
         <v>2</v>
@@ -26450,7 +26445,7 @@
         <v>26</v>
       </c>
       <c r="M476" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N476" s="3">
         <v>3</v>
@@ -26504,7 +26499,7 @@
         <v>27</v>
       </c>
       <c r="M477" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N477" s="3">
         <v>1</v>
@@ -26558,7 +26553,7 @@
         <v>28</v>
       </c>
       <c r="M478" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N478" s="3">
         <v>1</v>
@@ -26573,7 +26568,7 @@
         <v>1</v>
       </c>
       <c r="R478" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="479" spans="1:18" x14ac:dyDescent="0.15">
@@ -26614,7 +26609,7 @@
         <v>29</v>
       </c>
       <c r="M479" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N479" s="3">
         <v>3</v>
@@ -26668,7 +26663,7 @@
         <v>30</v>
       </c>
       <c r="M480" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N480" s="3">
         <v>2</v>
@@ -26722,7 +26717,7 @@
         <v>31</v>
       </c>
       <c r="M481" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N481" s="3">
         <v>2</v>
@@ -26776,7 +26771,7 @@
         <v>32</v>
       </c>
       <c r="M482" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N482" s="3">
         <v>3</v>
@@ -26830,7 +26825,7 @@
         <v>33</v>
       </c>
       <c r="M483" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N483" s="3">
         <v>1</v>
@@ -26884,7 +26879,7 @@
         <v>34</v>
       </c>
       <c r="M484" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N484" s="3">
         <v>2</v>
@@ -26899,7 +26894,7 @@
         <v>1</v>
       </c>
       <c r="R484" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="485" spans="1:18" x14ac:dyDescent="0.15">
@@ -26940,7 +26935,7 @@
         <v>35</v>
       </c>
       <c r="M485" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N485" s="3">
         <v>3</v>
@@ -26994,7 +26989,7 @@
         <v>36</v>
       </c>
       <c r="M486" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N486" s="3">
         <v>1</v>
@@ -27048,7 +27043,7 @@
         <v>1</v>
       </c>
       <c r="M487" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N487" s="3">
         <v>3</v>
@@ -27102,7 +27097,7 @@
         <v>2</v>
       </c>
       <c r="M488" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N488" s="3">
         <v>1</v>
@@ -27156,7 +27151,7 @@
         <v>3</v>
       </c>
       <c r="M489" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N489" s="3">
         <v>2</v>
@@ -27210,7 +27205,7 @@
         <v>4</v>
       </c>
       <c r="M490" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N490" s="3">
         <v>2</v>
@@ -27264,7 +27259,7 @@
         <v>5</v>
       </c>
       <c r="M491" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N491" s="3">
         <v>3</v>
@@ -27318,7 +27313,7 @@
         <v>6</v>
       </c>
       <c r="M492" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N492" s="3">
         <v>1</v>
@@ -27372,7 +27367,7 @@
         <v>7</v>
       </c>
       <c r="M493" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N493" s="3">
         <v>3</v>
@@ -27426,7 +27421,7 @@
         <v>8</v>
       </c>
       <c r="M494" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N494" s="3">
         <v>1</v>
@@ -27480,7 +27475,7 @@
         <v>9</v>
       </c>
       <c r="M495" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N495" s="3">
         <v>2</v>
@@ -27534,7 +27529,7 @@
         <v>10</v>
       </c>
       <c r="M496" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N496" s="3">
         <v>2</v>
@@ -27588,7 +27583,7 @@
         <v>11</v>
       </c>
       <c r="M497" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N497" s="3">
         <v>1</v>
@@ -27642,7 +27637,7 @@
         <v>12</v>
       </c>
       <c r="M498" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N498" s="3">
         <v>3</v>
@@ -27696,7 +27691,7 @@
         <v>13</v>
       </c>
       <c r="M499" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N499" s="3">
         <v>3</v>
@@ -27750,7 +27745,7 @@
         <v>14</v>
       </c>
       <c r="M500" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N500" s="3">
         <v>2</v>
@@ -27804,7 +27799,7 @@
         <v>15</v>
       </c>
       <c r="M501" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N501" s="3">
         <v>1</v>
@@ -27858,7 +27853,7 @@
         <v>16</v>
       </c>
       <c r="M502" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N502" s="3">
         <v>2</v>
@@ -27912,7 +27907,7 @@
         <v>17</v>
       </c>
       <c r="M503" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N503" s="3">
         <v>3</v>
@@ -27966,7 +27961,7 @@
         <v>18</v>
       </c>
       <c r="M504" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N504" s="3">
         <v>1</v>
@@ -28020,7 +28015,7 @@
         <v>19</v>
       </c>
       <c r="M505" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N505" s="3">
         <v>1</v>
@@ -28074,7 +28069,7 @@
         <v>20</v>
       </c>
       <c r="M506" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N506" s="3">
         <v>2</v>
@@ -28128,7 +28123,7 @@
         <v>21</v>
       </c>
       <c r="M507" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N507" s="3">
         <v>3</v>
@@ -28182,7 +28177,7 @@
         <v>22</v>
       </c>
       <c r="M508" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N508" s="3">
         <v>2</v>
@@ -28236,7 +28231,7 @@
         <v>23</v>
       </c>
       <c r="M509" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N509" s="3">
         <v>1</v>
@@ -28290,7 +28285,7 @@
         <v>24</v>
       </c>
       <c r="M510" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N510" s="3">
         <v>3</v>
@@ -28344,7 +28339,7 @@
         <v>25</v>
       </c>
       <c r="M511" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N511" s="3">
         <v>1</v>
@@ -28398,7 +28393,7 @@
         <v>26</v>
       </c>
       <c r="M512" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N512" s="3">
         <v>3</v>
@@ -28452,7 +28447,7 @@
         <v>27</v>
       </c>
       <c r="M513" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N513" s="3">
         <v>2</v>
@@ -28506,7 +28501,7 @@
         <v>28</v>
       </c>
       <c r="M514" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N514" s="3">
         <v>2</v>
@@ -28560,7 +28555,7 @@
         <v>29</v>
       </c>
       <c r="M515" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N515" s="3">
         <v>3</v>
@@ -28614,7 +28609,7 @@
         <v>30</v>
       </c>
       <c r="M516" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N516" s="3">
         <v>1</v>
@@ -28668,7 +28663,7 @@
         <v>31</v>
       </c>
       <c r="M517" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N517" s="3">
         <v>1</v>
@@ -28722,7 +28717,7 @@
         <v>32</v>
       </c>
       <c r="M518" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N518" s="3">
         <v>3</v>
@@ -28776,7 +28771,7 @@
         <v>33</v>
       </c>
       <c r="M519" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N519" s="3">
         <v>2</v>
@@ -28830,7 +28825,7 @@
         <v>34</v>
       </c>
       <c r="M520" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N520" s="3">
         <v>3</v>
@@ -28884,7 +28879,7 @@
         <v>35</v>
       </c>
       <c r="M521" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N521" s="3">
         <v>1</v>
@@ -28938,7 +28933,7 @@
         <v>36</v>
       </c>
       <c r="M522" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N522" s="3">
         <v>2</v>
@@ -28953,7 +28948,7 @@
         <v>1</v>
       </c>
       <c r="R522" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="523" spans="1:18" x14ac:dyDescent="0.15">
@@ -28994,7 +28989,7 @@
         <v>1</v>
       </c>
       <c r="M523" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N523" s="3">
         <v>3</v>
@@ -29048,7 +29043,7 @@
         <v>2</v>
       </c>
       <c r="M524" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N524" s="3">
         <v>2</v>
@@ -29102,7 +29097,7 @@
         <v>3</v>
       </c>
       <c r="M525" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N525" s="3">
         <v>1</v>
@@ -29156,7 +29151,7 @@
         <v>4</v>
       </c>
       <c r="M526" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N526" s="3">
         <v>3</v>
@@ -29210,7 +29205,7 @@
         <v>5</v>
       </c>
       <c r="M527" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N527" s="3">
         <v>1</v>
@@ -29264,7 +29259,7 @@
         <v>6</v>
       </c>
       <c r="M528" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N528" s="3">
         <v>2</v>
@@ -29318,7 +29313,7 @@
         <v>7</v>
       </c>
       <c r="M529" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N529" s="3">
         <v>1</v>
@@ -29372,7 +29367,7 @@
         <v>8</v>
       </c>
       <c r="M530" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N530" s="3">
         <v>2</v>
@@ -29426,7 +29421,7 @@
         <v>9</v>
       </c>
       <c r="M531" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N531" s="3">
         <v>3</v>
@@ -29480,7 +29475,7 @@
         <v>10</v>
       </c>
       <c r="M532" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N532" s="3">
         <v>1</v>
@@ -29534,7 +29529,7 @@
         <v>11</v>
       </c>
       <c r="M533" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N533" s="3">
         <v>2</v>
@@ -29588,7 +29583,7 @@
         <v>12</v>
       </c>
       <c r="M534" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N534" s="3">
         <v>3</v>
@@ -29642,7 +29637,7 @@
         <v>13</v>
       </c>
       <c r="M535" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N535" s="3">
         <v>3</v>
@@ -29696,7 +29691,7 @@
         <v>14</v>
       </c>
       <c r="M536" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N536" s="3">
         <v>1</v>
@@ -29750,7 +29745,7 @@
         <v>15</v>
       </c>
       <c r="M537" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N537" s="3">
         <v>2</v>
@@ -29804,7 +29799,7 @@
         <v>16</v>
       </c>
       <c r="M538" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N538" s="3">
         <v>2</v>
@@ -29858,7 +29853,7 @@
         <v>17</v>
       </c>
       <c r="M539" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N539" s="3">
         <v>1</v>
@@ -29912,7 +29907,7 @@
         <v>18</v>
       </c>
       <c r="M540" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N540" s="3">
         <v>3</v>
@@ -29966,7 +29961,7 @@
         <v>19</v>
       </c>
       <c r="M541" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N541" s="3">
         <v>3</v>
@@ -30020,7 +30015,7 @@
         <v>20</v>
       </c>
       <c r="M542" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N542" s="3">
         <v>1</v>
@@ -30074,7 +30069,7 @@
         <v>21</v>
       </c>
       <c r="M543" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N543" s="3">
         <v>2</v>
@@ -30128,7 +30123,7 @@
         <v>22</v>
       </c>
       <c r="M544" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N544" s="3">
         <v>1</v>
@@ -30182,7 +30177,7 @@
         <v>23</v>
       </c>
       <c r="M545" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N545" s="3">
         <v>2</v>
@@ -30236,7 +30231,7 @@
         <v>24</v>
       </c>
       <c r="M546" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N546" s="3">
         <v>3</v>
@@ -30290,7 +30285,7 @@
         <v>25</v>
       </c>
       <c r="M547" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N547" s="3">
         <v>2</v>
@@ -30344,7 +30339,7 @@
         <v>26</v>
       </c>
       <c r="M548" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N548" s="3">
         <v>3</v>
@@ -30398,7 +30393,7 @@
         <v>27</v>
       </c>
       <c r="M549" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N549" s="3">
         <v>1</v>
@@ -30452,7 +30447,7 @@
         <v>28</v>
       </c>
       <c r="M550" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N550" s="3">
         <v>1</v>
@@ -30506,7 +30501,7 @@
         <v>29</v>
       </c>
       <c r="M551" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N551" s="3">
         <v>2</v>
@@ -30560,7 +30555,7 @@
         <v>30</v>
       </c>
       <c r="M552" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N552" s="3">
         <v>3</v>
@@ -30614,7 +30609,7 @@
         <v>31</v>
       </c>
       <c r="M553" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N553" s="3">
         <v>2</v>
@@ -30668,7 +30663,7 @@
         <v>32</v>
       </c>
       <c r="M554" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N554" s="3">
         <v>1</v>
@@ -30722,7 +30717,7 @@
         <v>33</v>
       </c>
       <c r="M555" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N555" s="3">
         <v>3</v>
@@ -30776,7 +30771,7 @@
         <v>34</v>
       </c>
       <c r="M556" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N556" s="3">
         <v>2</v>
@@ -30830,7 +30825,7 @@
         <v>35</v>
       </c>
       <c r="M557" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N557" s="3">
         <v>3</v>
@@ -30884,7 +30879,7 @@
         <v>36</v>
       </c>
       <c r="M558" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N558" s="3">
         <v>1</v>
@@ -30938,7 +30933,7 @@
         <v>1</v>
       </c>
       <c r="M559" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N559" s="3">
         <v>3</v>
@@ -30992,7 +30987,7 @@
         <v>2</v>
       </c>
       <c r="M560" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N560" s="3">
         <v>2</v>
@@ -31046,7 +31041,7 @@
         <v>3</v>
       </c>
       <c r="M561" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N561" s="3">
         <v>1</v>
@@ -31100,7 +31095,7 @@
         <v>4</v>
       </c>
       <c r="M562" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N562" s="3">
         <v>2</v>
@@ -31154,7 +31149,7 @@
         <v>5</v>
       </c>
       <c r="M563" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N563" s="3">
         <v>3</v>
@@ -31208,7 +31203,7 @@
         <v>6</v>
       </c>
       <c r="M564" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N564" s="3">
         <v>1</v>
@@ -31262,7 +31257,7 @@
         <v>7</v>
       </c>
       <c r="M565" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N565" s="3">
         <v>3</v>
@@ -31316,7 +31311,7 @@
         <v>8</v>
       </c>
       <c r="M566" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N566" s="3">
         <v>1</v>
@@ -31370,7 +31365,7 @@
         <v>9</v>
       </c>
       <c r="M567" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N567" s="3">
         <v>2</v>
@@ -31424,7 +31419,7 @@
         <v>10</v>
       </c>
       <c r="M568" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N568" s="3">
         <v>1</v>
@@ -31478,7 +31473,7 @@
         <v>11</v>
       </c>
       <c r="M569" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N569" s="3">
         <v>2</v>
@@ -31532,7 +31527,7 @@
         <v>12</v>
       </c>
       <c r="M570" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N570" s="3">
         <v>3</v>
@@ -31586,7 +31581,7 @@
         <v>13</v>
       </c>
       <c r="M571" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N571" s="3">
         <v>1</v>
@@ -31640,7 +31635,7 @@
         <v>14</v>
       </c>
       <c r="M572" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N572" s="3">
         <v>2</v>
@@ -31694,7 +31689,7 @@
         <v>15</v>
       </c>
       <c r="M573" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N573" s="3">
         <v>3</v>
@@ -31748,7 +31743,7 @@
         <v>16</v>
       </c>
       <c r="M574" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N574" s="3">
         <v>3</v>
@@ -31802,7 +31797,7 @@
         <v>17</v>
       </c>
       <c r="M575" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N575" s="3">
         <v>2</v>
@@ -31856,7 +31851,7 @@
         <v>18</v>
       </c>
       <c r="M576" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N576" s="3">
         <v>1</v>
@@ -31912,7 +31907,7 @@
         <v>19</v>
       </c>
       <c r="M577" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N577" s="3">
         <v>3</v>
@@ -31966,7 +31961,7 @@
         <v>20</v>
       </c>
       <c r="M578" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N578" s="3">
         <v>2</v>
@@ -32020,7 +32015,7 @@
         <v>21</v>
       </c>
       <c r="M579" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N579" s="3">
         <v>1</v>
@@ -32074,7 +32069,7 @@
         <v>22</v>
       </c>
       <c r="M580" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N580" s="3">
         <v>1</v>
@@ -32128,7 +32123,7 @@
         <v>23</v>
       </c>
       <c r="M581" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N581" s="3">
         <v>3</v>
@@ -32182,7 +32177,7 @@
         <v>24</v>
       </c>
       <c r="M582" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N582" s="3">
         <v>2</v>
@@ -32236,7 +32231,7 @@
         <v>25</v>
       </c>
       <c r="M583" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N583" s="3">
         <v>2</v>
@@ -32290,7 +32285,7 @@
         <v>26</v>
       </c>
       <c r="M584" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N584" s="3">
         <v>3</v>
@@ -32344,7 +32339,7 @@
         <v>27</v>
       </c>
       <c r="M585" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N585" s="3">
         <v>1</v>
@@ -32398,7 +32393,7 @@
         <v>28</v>
       </c>
       <c r="M586" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N586" s="3">
         <v>1</v>
@@ -32452,7 +32447,7 @@
         <v>29</v>
       </c>
       <c r="M587" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N587" s="3">
         <v>3</v>
@@ -32506,7 +32501,7 @@
         <v>30</v>
       </c>
       <c r="M588" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N588" s="3">
         <v>2</v>
@@ -32560,7 +32555,7 @@
         <v>31</v>
       </c>
       <c r="M589" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N589" s="3">
         <v>2</v>
@@ -32614,7 +32609,7 @@
         <v>32</v>
       </c>
       <c r="M590" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N590" s="3">
         <v>1</v>
@@ -32668,7 +32663,7 @@
         <v>33</v>
       </c>
       <c r="M591" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N591" s="3">
         <v>3</v>
@@ -32722,7 +32717,7 @@
         <v>34</v>
       </c>
       <c r="M592" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N592" s="3">
         <v>1</v>
@@ -32776,7 +32771,7 @@
         <v>35</v>
       </c>
       <c r="M593" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N593" s="3">
         <v>3</v>
@@ -32830,7 +32825,7 @@
         <v>36</v>
       </c>
       <c r="M594" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N594" s="3">
         <v>2</v>
@@ -32884,7 +32879,7 @@
         <v>1</v>
       </c>
       <c r="M595" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N595" s="3">
         <v>2</v>
@@ -32938,7 +32933,7 @@
         <v>2</v>
       </c>
       <c r="M596" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N596" s="3">
         <v>1</v>
@@ -32992,7 +32987,7 @@
         <v>3</v>
       </c>
       <c r="M597" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N597" s="3">
         <v>3</v>
@@ -33046,7 +33041,7 @@
         <v>4</v>
       </c>
       <c r="M598" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N598" s="3">
         <v>3</v>
@@ -33100,7 +33095,7 @@
         <v>5</v>
       </c>
       <c r="M599" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N599" s="3">
         <v>1</v>
@@ -33154,7 +33149,7 @@
         <v>6</v>
       </c>
       <c r="M600" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N600" s="3">
         <v>2</v>
@@ -33208,7 +33203,7 @@
         <v>7</v>
       </c>
       <c r="M601" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N601" s="3">
         <v>1</v>
@@ -33262,7 +33257,7 @@
         <v>8</v>
       </c>
       <c r="M602" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N602" s="3">
         <v>3</v>
@@ -33316,7 +33311,7 @@
         <v>9</v>
       </c>
       <c r="M603" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N603" s="3">
         <v>2</v>
@@ -33372,7 +33367,7 @@
         <v>10</v>
       </c>
       <c r="M604" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N604" s="3">
         <v>1</v>
@@ -33426,7 +33421,7 @@
         <v>11</v>
       </c>
       <c r="M605" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N605" s="3">
         <v>2</v>
@@ -33480,7 +33475,7 @@
         <v>12</v>
       </c>
       <c r="M606" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N606" s="3">
         <v>3</v>
@@ -33534,7 +33529,7 @@
         <v>13</v>
       </c>
       <c r="M607" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N607" s="3">
         <v>3</v>
@@ -33588,7 +33583,7 @@
         <v>14</v>
       </c>
       <c r="M608" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N608" s="3">
         <v>1</v>
@@ -33642,7 +33637,7 @@
         <v>15</v>
       </c>
       <c r="M609" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N609" s="3">
         <v>2</v>
@@ -33696,7 +33691,7 @@
         <v>16</v>
       </c>
       <c r="M610" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N610" s="3">
         <v>3</v>
@@ -33750,7 +33745,7 @@
         <v>17</v>
       </c>
       <c r="M611" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N611" s="3">
         <v>2</v>
@@ -33804,7 +33799,7 @@
         <v>18</v>
       </c>
       <c r="M612" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N612" s="3">
         <v>1</v>
@@ -33858,7 +33853,7 @@
         <v>19</v>
       </c>
       <c r="M613" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N613" s="3">
         <v>1</v>
@@ -33912,7 +33907,7 @@
         <v>20</v>
       </c>
       <c r="M614" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N614" s="3">
         <v>2</v>
@@ -33966,7 +33961,7 @@
         <v>21</v>
       </c>
       <c r="M615" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N615" s="3">
         <v>3</v>
@@ -34020,7 +34015,7 @@
         <v>22</v>
       </c>
       <c r="M616" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N616" s="3">
         <v>1</v>
@@ -34074,7 +34069,7 @@
         <v>23</v>
       </c>
       <c r="M617" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N617" s="3">
         <v>3</v>
@@ -34128,7 +34123,7 @@
         <v>24</v>
       </c>
       <c r="M618" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N618" s="3">
         <v>2</v>
@@ -34182,7 +34177,7 @@
         <v>25</v>
       </c>
       <c r="M619" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N619" s="3">
         <v>1</v>
@@ -34236,7 +34231,7 @@
         <v>26</v>
       </c>
       <c r="M620" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N620" s="3">
         <v>2</v>
@@ -34290,7 +34285,7 @@
         <v>27</v>
       </c>
       <c r="M621" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N621" s="3">
         <v>3</v>
@@ -34344,7 +34339,7 @@
         <v>28</v>
       </c>
       <c r="M622" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N622" s="3">
         <v>2</v>
@@ -34398,7 +34393,7 @@
         <v>29</v>
       </c>
       <c r="M623" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N623" s="3">
         <v>3</v>
@@ -34452,7 +34447,7 @@
         <v>30</v>
       </c>
       <c r="M624" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N624" s="3">
         <v>1</v>
@@ -34506,7 +34501,7 @@
         <v>31</v>
       </c>
       <c r="M625" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N625" s="3">
         <v>2</v>
@@ -34560,7 +34555,7 @@
         <v>32</v>
       </c>
       <c r="M626" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N626" s="3">
         <v>1</v>
@@ -34614,7 +34609,7 @@
         <v>33</v>
       </c>
       <c r="M627" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N627" s="3">
         <v>3</v>
@@ -34668,7 +34663,7 @@
         <v>34</v>
       </c>
       <c r="M628" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N628" s="3">
         <v>1</v>
@@ -34722,7 +34717,7 @@
         <v>35</v>
       </c>
       <c r="M629" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N629" s="3">
         <v>3</v>
@@ -34776,7 +34771,7 @@
         <v>36</v>
       </c>
       <c r="M630" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N630" s="3">
         <v>2</v>
@@ -34830,7 +34825,7 @@
         <v>1</v>
       </c>
       <c r="M631" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N631" s="3">
         <v>2</v>
@@ -34884,7 +34879,7 @@
         <v>2</v>
       </c>
       <c r="M632" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N632" s="3">
         <v>1</v>
@@ -34938,7 +34933,7 @@
         <v>3</v>
       </c>
       <c r="M633" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N633" s="3">
         <v>3</v>
@@ -34992,7 +34987,7 @@
         <v>4</v>
       </c>
       <c r="M634" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N634" s="3">
         <v>1</v>
@@ -35046,7 +35041,7 @@
         <v>5</v>
       </c>
       <c r="M635" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N635" s="3">
         <v>3</v>
@@ -35100,7 +35095,7 @@
         <v>6</v>
       </c>
       <c r="M636" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N636" s="3">
         <v>2</v>
@@ -35154,7 +35149,7 @@
         <v>7</v>
       </c>
       <c r="M637" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N637" s="3">
         <v>1</v>
@@ -35208,7 +35203,7 @@
         <v>8</v>
       </c>
       <c r="M638" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N638" s="3">
         <v>2</v>
@@ -35262,7 +35257,7 @@
         <v>9</v>
       </c>
       <c r="M639" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N639" s="3">
         <v>3</v>
@@ -35316,7 +35311,7 @@
         <v>10</v>
       </c>
       <c r="M640" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N640" s="3">
         <v>1</v>
@@ -35370,7 +35365,7 @@
         <v>11</v>
       </c>
       <c r="M641" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N641" s="3">
         <v>3</v>
@@ -35424,7 +35419,7 @@
         <v>12</v>
       </c>
       <c r="M642" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N642" s="3">
         <v>2</v>
@@ -35478,7 +35473,7 @@
         <v>13</v>
       </c>
       <c r="M643" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N643" s="3">
         <v>1</v>
@@ -35532,7 +35527,7 @@
         <v>14</v>
       </c>
       <c r="M644" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N644" s="3">
         <v>3</v>
@@ -35586,7 +35581,7 @@
         <v>15</v>
       </c>
       <c r="M645" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N645" s="3">
         <v>2</v>
@@ -35640,7 +35635,7 @@
         <v>16</v>
       </c>
       <c r="M646" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N646" s="3">
         <v>2</v>
@@ -35694,7 +35689,7 @@
         <v>17</v>
       </c>
       <c r="M647" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N647" s="3">
         <v>1</v>
@@ -35748,7 +35743,7 @@
         <v>18</v>
       </c>
       <c r="M648" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N648" s="3">
         <v>3</v>
@@ -35802,7 +35797,7 @@
         <v>19</v>
       </c>
       <c r="M649" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N649" s="3">
         <v>1</v>
@@ -35856,7 +35851,7 @@
         <v>20</v>
       </c>
       <c r="M650" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N650" s="3">
         <v>2</v>
@@ -35910,7 +35905,7 @@
         <v>21</v>
       </c>
       <c r="M651" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N651" s="3">
         <v>3</v>
@@ -35964,7 +35959,7 @@
         <v>22</v>
       </c>
       <c r="M652" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N652" s="3">
         <v>1</v>
@@ -36018,7 +36013,7 @@
         <v>23</v>
       </c>
       <c r="M653" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N653" s="3">
         <v>3</v>
@@ -36072,7 +36067,7 @@
         <v>24</v>
       </c>
       <c r="M654" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N654" s="3">
         <v>2</v>
@@ -36126,7 +36121,7 @@
         <v>25</v>
       </c>
       <c r="M655" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N655" s="3">
         <v>1</v>
@@ -36180,7 +36175,7 @@
         <v>26</v>
       </c>
       <c r="M656" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N656" s="3">
         <v>3</v>
@@ -36234,7 +36229,7 @@
         <v>27</v>
       </c>
       <c r="M657" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N657" s="3">
         <v>2</v>
@@ -36288,7 +36283,7 @@
         <v>28</v>
       </c>
       <c r="M658" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N658" s="3">
         <v>1</v>
@@ -36342,7 +36337,7 @@
         <v>29</v>
       </c>
       <c r="M659" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N659" s="3">
         <v>3</v>
@@ -36396,7 +36391,7 @@
         <v>30</v>
       </c>
       <c r="M660" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N660" s="3">
         <v>2</v>
@@ -36450,7 +36445,7 @@
         <v>31</v>
       </c>
       <c r="M661" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N661" s="3">
         <v>1</v>
@@ -36504,7 +36499,7 @@
         <v>32</v>
       </c>
       <c r="M662" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N662" s="3">
         <v>3</v>
@@ -36558,7 +36553,7 @@
         <v>33</v>
       </c>
       <c r="M663" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N663" s="3">
         <v>2</v>
@@ -36612,7 +36607,7 @@
         <v>34</v>
       </c>
       <c r="M664" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N664" s="3">
         <v>2</v>
@@ -36666,7 +36661,7 @@
         <v>35</v>
       </c>
       <c r="M665" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N665" s="3">
         <v>1</v>
@@ -36720,7 +36715,7 @@
         <v>36</v>
       </c>
       <c r="M666" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N666" s="3">
         <v>3</v>
@@ -36774,7 +36769,7 @@
         <v>1</v>
       </c>
       <c r="M667" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N667" s="3">
         <v>1</v>
@@ -36828,7 +36823,7 @@
         <v>2</v>
       </c>
       <c r="M668" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N668" s="3">
         <v>2</v>
@@ -36882,7 +36877,7 @@
         <v>3</v>
       </c>
       <c r="M669" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N669" s="3">
         <v>3</v>
@@ -36936,7 +36931,7 @@
         <v>4</v>
       </c>
       <c r="M670" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N670" s="3">
         <v>3</v>
@@ -36990,7 +36985,7 @@
         <v>5</v>
       </c>
       <c r="M671" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N671" s="3">
         <v>2</v>
@@ -37044,7 +37039,7 @@
         <v>6</v>
       </c>
       <c r="M672" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N672" s="3">
         <v>1</v>
@@ -37098,7 +37093,7 @@
         <v>7</v>
       </c>
       <c r="M673" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N673" s="3">
         <v>1</v>
@@ -37152,7 +37147,7 @@
         <v>8</v>
       </c>
       <c r="M674" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N674" s="3">
         <v>2</v>
@@ -37206,7 +37201,7 @@
         <v>9</v>
       </c>
       <c r="M675" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N675" s="3">
         <v>3</v>
@@ -37260,7 +37255,7 @@
         <v>10</v>
       </c>
       <c r="M676" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N676" s="3">
         <v>3</v>
@@ -37314,7 +37309,7 @@
         <v>11</v>
       </c>
       <c r="M677" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N677" s="3">
         <v>2</v>
@@ -37368,7 +37363,7 @@
         <v>12</v>
       </c>
       <c r="M678" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N678" s="3">
         <v>1</v>
@@ -37422,7 +37417,7 @@
         <v>13</v>
       </c>
       <c r="M679" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N679" s="3">
         <v>2</v>
@@ -37476,7 +37471,7 @@
         <v>14</v>
       </c>
       <c r="M680" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N680" s="3">
         <v>3</v>
@@ -37532,7 +37527,7 @@
         <v>15</v>
       </c>
       <c r="M681" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N681" s="3">
         <v>1</v>
@@ -37586,7 +37581,7 @@
         <v>16</v>
       </c>
       <c r="M682" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N682" s="3">
         <v>1</v>
@@ -37640,7 +37635,7 @@
         <v>17</v>
       </c>
       <c r="M683" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N683" s="3">
         <v>2</v>
@@ -37694,7 +37689,7 @@
         <v>18</v>
       </c>
       <c r="M684" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N684" s="3">
         <v>3</v>
@@ -37750,7 +37745,7 @@
         <v>1</v>
       </c>
       <c r="M685" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N685" s="3">
         <v>1</v>
@@ -37804,7 +37799,7 @@
         <v>2</v>
       </c>
       <c r="M686" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N686" s="3">
         <v>2</v>
@@ -37858,7 +37853,7 @@
         <v>3</v>
       </c>
       <c r="M687" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N687" s="3">
         <v>3</v>
@@ -37912,7 +37907,7 @@
         <v>4</v>
       </c>
       <c r="M688" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N688" s="3">
         <v>2</v>
@@ -37966,7 +37961,7 @@
         <v>5</v>
       </c>
       <c r="M689" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N689" s="3">
         <v>1</v>
@@ -38020,7 +38015,7 @@
         <v>6</v>
       </c>
       <c r="M690" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N690" s="3">
         <v>3</v>
@@ -38074,7 +38069,7 @@
         <v>7</v>
       </c>
       <c r="M691" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N691" s="3">
         <v>3</v>
@@ -38128,7 +38123,7 @@
         <v>8</v>
       </c>
       <c r="M692" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N692" s="3">
         <v>2</v>
@@ -38182,7 +38177,7 @@
         <v>9</v>
       </c>
       <c r="M693" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N693" s="3">
         <v>1</v>
@@ -38236,7 +38231,7 @@
         <v>10</v>
       </c>
       <c r="M694" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N694" s="3">
         <v>3</v>
@@ -38251,7 +38246,7 @@
         <v>1</v>
       </c>
       <c r="R694" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="695" spans="1:18" x14ac:dyDescent="0.15">
@@ -38292,7 +38287,7 @@
         <v>1</v>
       </c>
       <c r="M695" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N695" s="3">
         <v>3</v>
@@ -38348,7 +38343,7 @@
         <v>2</v>
       </c>
       <c r="M696" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N696" s="3">
         <v>2</v>
@@ -38402,7 +38397,7 @@
         <v>3</v>
       </c>
       <c r="M697" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N697" s="3">
         <v>1</v>
@@ -38456,7 +38451,7 @@
         <v>4</v>
       </c>
       <c r="M698" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N698" s="3">
         <v>3</v>
@@ -38510,7 +38505,7 @@
         <v>5</v>
       </c>
       <c r="M699" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N699" s="3">
         <v>1</v>
@@ -38564,7 +38559,7 @@
         <v>6</v>
       </c>
       <c r="M700" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N700" s="3">
         <v>2</v>
@@ -38618,7 +38613,7 @@
         <v>7</v>
       </c>
       <c r="M701" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N701" s="3">
         <v>1</v>
@@ -38672,7 +38667,7 @@
         <v>8</v>
       </c>
       <c r="M702" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N702" s="3">
         <v>3</v>
@@ -38726,7 +38721,7 @@
         <v>9</v>
       </c>
       <c r="M703" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N703" s="3">
         <v>2</v>
@@ -38780,7 +38775,7 @@
         <v>10</v>
       </c>
       <c r="M704" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N704" s="3">
         <v>1</v>
@@ -38834,7 +38829,7 @@
         <v>11</v>
       </c>
       <c r="M705" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N705" s="3">
         <v>3</v>
@@ -38888,7 +38883,7 @@
         <v>12</v>
       </c>
       <c r="M706" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N706" s="3">
         <v>2</v>
@@ -38942,7 +38937,7 @@
         <v>13</v>
       </c>
       <c r="M707" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N707" s="3">
         <v>1</v>
@@ -38996,7 +38991,7 @@
         <v>14</v>
       </c>
       <c r="M708" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N708" s="3">
         <v>3</v>
@@ -39050,7 +39045,7 @@
         <v>15</v>
       </c>
       <c r="M709" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N709" s="3">
         <v>2</v>
@@ -39104,7 +39099,7 @@
         <v>16</v>
       </c>
       <c r="M710" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N710" s="3">
         <v>3</v>
@@ -39158,7 +39153,7 @@
         <v>17</v>
       </c>
       <c r="M711" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N711" s="3">
         <v>2</v>
@@ -39212,7 +39207,7 @@
         <v>18</v>
       </c>
       <c r="M712" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N712" s="3">
         <v>1</v>
@@ -39266,7 +39261,7 @@
         <v>19</v>
       </c>
       <c r="M713" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N713" s="3">
         <v>1</v>
@@ -39320,7 +39315,7 @@
         <v>20</v>
       </c>
       <c r="M714" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N714" s="3">
         <v>3</v>
@@ -39374,7 +39369,7 @@
         <v>21</v>
       </c>
       <c r="M715" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N715" s="3">
         <v>2</v>
@@ -39428,7 +39423,7 @@
         <v>22</v>
       </c>
       <c r="M716" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N716" s="3">
         <v>3</v>
@@ -39482,7 +39477,7 @@
         <v>23</v>
       </c>
       <c r="M717" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N717" s="3">
         <v>1</v>
@@ -39536,7 +39531,7 @@
         <v>24</v>
       </c>
       <c r="M718" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N718" s="3">
         <v>2</v>
@@ -39590,7 +39585,7 @@
         <v>25</v>
       </c>
       <c r="M719" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N719" s="3">
         <v>2</v>
@@ -39644,7 +39639,7 @@
         <v>26</v>
       </c>
       <c r="M720" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N720" s="3">
         <v>1</v>
@@ -39698,7 +39693,7 @@
         <v>27</v>
       </c>
       <c r="M721" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N721" s="3">
         <v>3</v>
@@ -39752,7 +39747,7 @@
         <v>28</v>
       </c>
       <c r="M722" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N722" s="3">
         <v>3</v>
@@ -39806,7 +39801,7 @@
         <v>29</v>
       </c>
       <c r="M723" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N723" s="3">
         <v>1</v>
@@ -39860,7 +39855,7 @@
         <v>30</v>
       </c>
       <c r="M724" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N724" s="3">
         <v>2</v>
@@ -39914,7 +39909,7 @@
         <v>31</v>
       </c>
       <c r="M725" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N725" s="3">
         <v>1</v>
@@ -39968,7 +39963,7 @@
         <v>32</v>
       </c>
       <c r="M726" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N726" s="3">
         <v>3</v>
@@ -40022,7 +40017,7 @@
         <v>33</v>
       </c>
       <c r="M727" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N727" s="3">
         <v>2</v>
@@ -40076,7 +40071,7 @@
         <v>34</v>
       </c>
       <c r="M728" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N728" s="3">
         <v>2</v>
@@ -40130,7 +40125,7 @@
         <v>35</v>
       </c>
       <c r="M729" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N729" s="3">
         <v>1</v>
@@ -40184,7 +40179,7 @@
         <v>36</v>
       </c>
       <c r="M730" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N730" s="3">
         <v>3</v>
@@ -40238,7 +40233,7 @@
         <v>1</v>
       </c>
       <c r="M731" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N731" s="3">
         <v>1</v>
@@ -40292,7 +40287,7 @@
         <v>2</v>
       </c>
       <c r="M732" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N732" s="3">
         <v>2</v>
@@ -40346,7 +40341,7 @@
         <v>3</v>
       </c>
       <c r="M733" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N733" s="3">
         <v>3</v>
@@ -40400,7 +40395,7 @@
         <v>4</v>
       </c>
       <c r="M734" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N734" s="3">
         <v>3</v>
@@ -40454,7 +40449,7 @@
         <v>5</v>
       </c>
       <c r="M735" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N735" s="3">
         <v>2</v>
@@ -40508,7 +40503,7 @@
         <v>6</v>
       </c>
       <c r="M736" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N736" s="3">
         <v>1</v>
@@ -40552,8 +40547,8 @@
       <c r="I737" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J737" s="7" t="s">
-        <v>87</v>
+      <c r="J737" s="8">
+        <v>2</v>
       </c>
       <c r="K737" s="2">
         <v>3</v>
@@ -40562,7 +40557,7 @@
         <v>7</v>
       </c>
       <c r="M737" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N737" s="3">
         <v>2</v>
@@ -40608,8 +40603,8 @@
       <c r="I738" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J738" s="2" t="s">
-        <v>89</v>
+      <c r="J738" s="8">
+        <v>3</v>
       </c>
       <c r="K738" s="2">
         <v>3</v>
@@ -40618,7 +40613,7 @@
         <v>8</v>
       </c>
       <c r="M738" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N738" s="3">
         <v>1</v>
@@ -40627,7 +40622,7 @@
       <c r="P738" s="2"/>
       <c r="Q738" s="2"/>
       <c r="R738" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="739" spans="1:18" x14ac:dyDescent="0.15">
@@ -40668,7 +40663,7 @@
         <v>1</v>
       </c>
       <c r="M739" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N739" s="3">
         <v>3</v>
@@ -40722,7 +40717,7 @@
         <v>2</v>
       </c>
       <c r="M740" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N740" s="3">
         <v>2</v>
@@ -40776,7 +40771,7 @@
         <v>3</v>
       </c>
       <c r="M741" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N741" s="3">
         <v>1</v>
@@ -40830,7 +40825,7 @@
         <v>4</v>
       </c>
       <c r="M742" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N742" s="3">
         <v>2</v>
@@ -40884,7 +40879,7 @@
         <v>5</v>
       </c>
       <c r="M743" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N743" s="3">
         <v>3</v>
@@ -40938,7 +40933,7 @@
         <v>6</v>
       </c>
       <c r="M744" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N744" s="3">
         <v>1</v>
@@ -40992,7 +40987,7 @@
         <v>7</v>
       </c>
       <c r="M745" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N745" s="3">
         <v>2</v>
@@ -41046,7 +41041,7 @@
         <v>8</v>
       </c>
       <c r="M746" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N746" s="3">
         <v>1</v>
@@ -41100,7 +41095,7 @@
         <v>9</v>
       </c>
       <c r="M747" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N747" s="3">
         <v>3</v>
@@ -41154,7 +41149,7 @@
         <v>1</v>
       </c>
       <c r="M748" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N748" s="3">
         <v>3</v>
@@ -41208,7 +41203,7 @@
         <v>2</v>
       </c>
       <c r="M749" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N749" s="3">
         <v>2</v>
@@ -41262,7 +41257,7 @@
         <v>3</v>
       </c>
       <c r="M750" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N750" s="3">
         <v>1</v>
@@ -41316,7 +41311,7 @@
         <v>4</v>
       </c>
       <c r="M751" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N751" s="3">
         <v>1</v>
@@ -41370,7 +41365,7 @@
         <v>5</v>
       </c>
       <c r="M752" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N752" s="3">
         <v>2</v>
@@ -41424,7 +41419,7 @@
         <v>6</v>
       </c>
       <c r="M753" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N753" s="3">
         <v>3</v>
@@ -41478,7 +41473,7 @@
         <v>7</v>
       </c>
       <c r="M754" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N754" s="3">
         <v>1</v>
@@ -41534,7 +41529,7 @@
         <v>8</v>
       </c>
       <c r="M755" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N755" s="3">
         <v>2</v>
@@ -41588,7 +41583,7 @@
         <v>9</v>
       </c>
       <c r="M756" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N756" s="3">
         <v>3</v>
@@ -41608,6 +41603,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/raw_data/ManyPrimates Pilot_CapuchinsEdi_Voelter.xlsx
+++ b/data/raw_data/ManyPrimates Pilot_CapuchinsEdi_Voelter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MBohn/Work/ManyPrimates/ManyPrimates_pilot/data/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7F163DF-17BA-994F-9E4E-020CAAB02F96}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{969B13F2-93F5-B843-AD7E-11C1104089D4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28460" windowHeight="14420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw data" sheetId="4" r:id="rId1"/>
@@ -682,9 +682,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R756"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3613,7 +3613,7 @@
         <v>66</v>
       </c>
       <c r="Q54" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R54" s="2"/>
     </row>
@@ -13573,7 +13573,7 @@
         <v>3</v>
       </c>
       <c r="Q238" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R238" s="2"/>
     </row>
@@ -20177,7 +20177,7 @@
         <v>66</v>
       </c>
       <c r="Q360" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R360" s="2"/>
     </row>
@@ -27049,7 +27049,7 @@
         <v>3</v>
       </c>
       <c r="O487" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P487" s="2" t="s">
         <v>66</v>
@@ -27919,7 +27919,7 @@
         <v>2</v>
       </c>
       <c r="Q503" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R503" s="2"/>
     </row>
@@ -37748,7 +37748,7 @@
         <v>98</v>
       </c>
       <c r="N685" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O685" s="2">
         <v>1</v>
@@ -37802,7 +37802,7 @@
         <v>98</v>
       </c>
       <c r="N686" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O686" s="2">
         <v>2</v>
@@ -37856,7 +37856,7 @@
         <v>98</v>
       </c>
       <c r="N687" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O687" s="2">
         <v>2</v>
@@ -37910,7 +37910,7 @@
         <v>99</v>
       </c>
       <c r="N688" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O688" s="2">
         <v>1</v>
@@ -37964,7 +37964,7 @@
         <v>99</v>
       </c>
       <c r="N689" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O689" s="2">
         <v>1</v>
@@ -38072,7 +38072,7 @@
         <v>100</v>
       </c>
       <c r="N691" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O691" s="2">
         <v>3</v>
@@ -38126,7 +38126,7 @@
         <v>100</v>
       </c>
       <c r="N692" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O692" s="2">
         <v>3</v>
@@ -38180,7 +38180,7 @@
         <v>100</v>
       </c>
       <c r="N693" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O693" s="2">
         <v>3</v>
@@ -38234,7 +38234,7 @@
         <v>100</v>
       </c>
       <c r="N694" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O694" s="2">
         <v>1</v>
@@ -40407,7 +40407,7 @@
         <v>66</v>
       </c>
       <c r="Q734" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R734" s="2"/>
     </row>
@@ -40563,7 +40563,7 @@
         <v>2</v>
       </c>
       <c r="O737" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P737" s="2" t="s">
         <v>66</v>
@@ -40618,9 +40618,13 @@
       <c r="N738" s="3">
         <v>1</v>
       </c>
-      <c r="O738" s="2"/>
+      <c r="O738" s="2">
+        <v>2</v>
+      </c>
       <c r="P738" s="2"/>
-      <c r="Q738" s="2"/>
+      <c r="Q738" s="2">
+        <v>0</v>
+      </c>
       <c r="R738" s="2" t="s">
         <v>88</v>
       </c>
